--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2760" windowWidth="33100" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="3460" yWindow="2320" windowWidth="33100" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Booking number</t>
   </si>
   <si>
-    <t>Holding for Agency</t>
-  </si>
-  <si>
     <t>Immigration Hold</t>
   </si>
   <si>
@@ -414,9 +411,6 @@
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/nc:ActivityDate/nc:Date</t>
   </si>
   <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/cscr-ext:HoldForAgency/nc:OrganizationName</t>
-  </si>
-  <si>
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/cscr-ext:DetentiontImmigrationHoldIndicator</t>
   </si>
   <si>
@@ -547,6 +541,12 @@
   </si>
   <si>
     <t>The status of the subject prior to trial</t>
+  </si>
+  <si>
+    <t>Hold for Agency</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Charge[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/j:Charge/@structures:ref]/cscr-ext:HoldForAgency/nc:OrganizationName</t>
   </si>
 </sst>
 </file>
@@ -654,8 +654,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="695">
+  <cellStyleXfs count="697">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1414,7 +1416,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="695">
+  <cellStyles count="697">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1762,6 +1764,7 @@
     <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2109,6 +2112,7 @@
     <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2440,9 +2444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2457,7 +2461,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -2475,7 +2479,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>11</v>
@@ -2500,7 +2504,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2513,12 +2517,12 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -2527,29 +2531,29 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -2559,17 +2563,17 @@
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -2579,12 +2583,12 @@
     <row r="12" spans="1:5" s="8" customFormat="1" ht="30">
       <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30">
@@ -2593,11 +2597,11 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30">
@@ -2606,11 +2610,11 @@
         <v>2</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
@@ -2619,115 +2623,115 @@
         <v>0</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45">
       <c r="A17" s="6"/>
       <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45">
       <c r="A18" s="6"/>
       <c r="B18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45">
       <c r="A19" s="6"/>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45">
       <c r="A20" s="6"/>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30">
       <c r="A21" s="16"/>
       <c r="B21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>53</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30">
       <c r="A22" s="16"/>
       <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30">
       <c r="A23" s="16"/>
       <c r="B23" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30">
@@ -2736,55 +2740,55 @@
         <v>1</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="6"/>
       <c r="E25" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -2797,50 +2801,50 @@
         <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="7" customFormat="1" ht="60">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="7" customFormat="1" ht="60">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="7" customFormat="1" ht="60">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="7" customFormat="1" ht="45">
@@ -2849,16 +2853,16 @@
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="7" customFormat="1">
       <c r="A34" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2867,42 +2871,42 @@
     </row>
     <row r="35" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B36" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="7" customFormat="1" ht="60">
       <c r="A37" s="8"/>
       <c r="B37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1">
       <c r="A38" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2915,42 +2919,42 @@
         <v>13</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45">
       <c r="A41" s="12"/>
       <c r="B41" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1">
       <c r="A42" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2960,30 +2964,30 @@
     <row r="43" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A43" s="8"/>
       <c r="B43" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A44" s="8"/>
       <c r="B44" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="7" customFormat="1">
       <c r="A45" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -2992,209 +2996,209 @@
     </row>
     <row r="46" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B46" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A47" s="8" t="s">
-        <v>34</v>
+      <c r="A47" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B48" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8" t="s">
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A48" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B49" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="E50" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A51" s="3"/>
-      <c r="B51" s="3" t="s">
-        <v>90</v>
+      <c r="B51" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A52" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="A52" s="3"/>
-      <c r="B52" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A53" s="8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A54" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A55" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="7" customFormat="1">
-      <c r="A56" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="7" customFormat="1">
+      <c r="A55" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+    </row>
+    <row r="56" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B56" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
+      <c r="C56" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="57" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B57" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="58" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B58" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B59" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="7" t="s">
+    <row r="59" spans="1:5" s="7" customFormat="1" ht="60">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="C59" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="7" customFormat="1" ht="60">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C60" s="8" t="s">
+    <row r="60" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A60" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8" t="s">
+      <c r="C60" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A61" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>117</v>
+      <c r="A61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="7" customFormat="1">
       <c r="A62" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -3204,107 +3208,107 @@
     <row r="63" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A63" s="8"/>
       <c r="B63" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A64" s="8"/>
       <c r="B64" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A65" s="8"/>
       <c r="B65" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A66" s="8"/>
       <c r="B66" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A67" s="8"/>
       <c r="B67" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A68" s="8"/>
       <c r="B68" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A69" s="8"/>
       <c r="B69" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A70" s="8"/>
       <c r="B70" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="7" customFormat="1">
       <c r="A72" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -3314,17 +3318,17 @@
     <row r="73" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -3333,18 +3337,18 @@
     </row>
     <row r="75" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B75" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="7" customFormat="1">
       <c r="B76" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="2320" windowWidth="33100" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2520" yWindow="2160" windowWidth="33100" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="194">
   <si>
     <t>Race</t>
   </si>
@@ -547,13 +547,67 @@
   </si>
   <si>
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Charge[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/j:Charge/@structures:ref]/cscr-ext:HoldForAgency/nc:OrganizationName</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education Level </t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonAugmentation/nc:EmployeeOccupationCategoryText</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Eye Color</t>
+  </si>
+  <si>
+    <t>Hair Color</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Physical Feature Description</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonAgeMeasure/nc:MeasureValueText</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonEyeColorText</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonHairColorText</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonHeightMeasure/nc:MeasureValueText</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonWeightMeasure/nc:MeasureValueText</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonPhysicalFeature/nc:PhysicalFeatureDescriptionText</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonEducationLevelText</t>
+  </si>
+  <si>
+    <t>Military Service Status Code</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonMilitarySummary/ac-bkg-codes:MilitaryServiceStatusCode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -618,6 +672,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -654,7 +714,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="697">
+  <cellStyleXfs count="725">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1352,8 +1412,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1415,8 +1503,20 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="697">
+  <cellStyles count="725">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1765,6 +1865,20 @@
     <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2113,6 +2227,20 @@
     <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2442,19 +2570,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="112.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -2591,763 +2719,886 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="1:5" s="15" customFormat="1" ht="30">
+      <c r="A13" s="24"/>
+      <c r="B13" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="15" customFormat="1" ht="30">
+      <c r="A14" s="24"/>
+      <c r="B14" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="15" customFormat="1" ht="30">
+      <c r="A15" s="24"/>
+      <c r="B15" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="15" customFormat="1" ht="30">
+      <c r="A16" s="24"/>
+      <c r="B16" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="15" customFormat="1" ht="30">
+      <c r="A17" s="24"/>
+      <c r="B17" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="15" customFormat="1" ht="30">
+      <c r="A18" s="24"/>
+      <c r="B18" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="12" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
+    <row r="20" spans="1:5" ht="30">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
+    <row r="21" spans="1:5" ht="30">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12" t="s">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12" t="s">
+    <row r="22" spans="1:5" ht="30">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="12" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45">
-      <c r="A17" s="6"/>
-      <c r="B17" s="2" t="s">
+    <row r="23" spans="1:5" ht="45">
+      <c r="A23" s="6"/>
+      <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45">
-      <c r="A18" s="6"/>
-      <c r="B18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45">
-      <c r="A19" s="6"/>
-      <c r="B19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45">
-      <c r="A20" s="6"/>
-      <c r="B20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30">
-      <c r="A22" s="16"/>
-      <c r="B22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30">
-      <c r="A24" s="2"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45">
+      <c r="A24" s="6"/>
       <c r="B24" s="2" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45">
+      <c r="A25" s="6"/>
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45">
+      <c r="A26" s="6"/>
+      <c r="B26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30">
+      <c r="A28" s="16"/>
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
+    <row r="31" spans="1:5" ht="30">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="15" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A26" s="2" t="s">
+    <row r="32" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
+    <row r="33" spans="1:13" s="7" customFormat="1" ht="45">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="11" t="s">
+    <row r="34" spans="1:13" s="7" customFormat="1" ht="30">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="1:13" s="7" customFormat="1" ht="45">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="1:13" s="7" customFormat="1" ht="30">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:13" s="7" customFormat="1" ht="45">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="7" customFormat="1" ht="60">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="7" customFormat="1" ht="60">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="7" customFormat="1" ht="60">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="7" customFormat="1">
-      <c r="A34" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="7" customFormat="1" ht="60">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="7" customFormat="1">
-      <c r="A38" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="39" spans="1:13" s="7" customFormat="1" ht="60">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="7" customFormat="1" ht="30">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="7" customFormat="1" ht="60">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="45">
-      <c r="A41" s="12"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="7" customFormat="1" ht="60">
+      <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="7" customFormat="1">
-      <c r="A42" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A44" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="7" customFormat="1" ht="45">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="7" customFormat="1">
+      <c r="A43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:13" s="7" customFormat="1" ht="30">
       <c r="B44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="7" customFormat="1">
-      <c r="A45" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A47" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B48" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="7" customFormat="1" ht="45">
+        <v>15</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="7" customFormat="1" ht="30">
+      <c r="B45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="7" customFormat="1" ht="60">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="7" customFormat="1">
+      <c r="A47" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:13" s="7" customFormat="1" ht="30">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="45">
+      <c r="A50" s="12"/>
+      <c r="B50" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="7" customFormat="1">
+      <c r="A51" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A53" s="8"/>
+      <c r="B53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="7" customFormat="1">
+      <c r="A54" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A56" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B57" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3" t="s">
+    <row r="59" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="A51" s="3"/>
-      <c r="B51" s="7" t="s">
+    <row r="60" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="A60" s="3"/>
+      <c r="B60" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A52" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A53" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A54" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="7" customFormat="1">
-      <c r="A55" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-    </row>
-    <row r="56" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B56" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B57" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B58" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="7" customFormat="1" ht="60">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A60" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A61" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>174</v>
+        <v>43</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A62" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A63" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="7" customFormat="1">
+      <c r="A64" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+    </row>
+    <row r="65" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B65" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B66" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B67" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="7" customFormat="1" ht="60">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A69" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A70" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="7" customFormat="1">
-      <c r="A62" s="10" t="s">
+    <row r="71" spans="1:5" s="7" customFormat="1">
+      <c r="A71" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-    </row>
-    <row r="63" spans="1:5" s="5" customFormat="1" ht="30">
-      <c r="A63" s="8"/>
-      <c r="B63" s="18" t="s">
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+    </row>
+    <row r="72" spans="1:5" s="5" customFormat="1" ht="30">
+      <c r="A72" s="8"/>
+      <c r="B72" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="2" t="s">
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="5" customFormat="1" ht="30">
-      <c r="A64" s="8"/>
-      <c r="B64" s="18" t="s">
+    <row r="73" spans="1:5" s="5" customFormat="1" ht="30">
+      <c r="A73" s="8"/>
+      <c r="B73" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="5" customFormat="1" ht="30">
-      <c r="A65" s="8"/>
-      <c r="B65" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="5" customFormat="1" ht="30">
-      <c r="A66" s="8"/>
-      <c r="B66" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="5" customFormat="1" ht="30">
-      <c r="A67" s="8"/>
-      <c r="B67" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="5" customFormat="1" ht="30">
-      <c r="A68" s="8"/>
-      <c r="B68" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="A69" s="8"/>
-      <c r="B69" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="A70" s="8"/>
-      <c r="B70" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="7" customFormat="1">
-      <c r="A72" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-    </row>
-    <row r="73" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="5" customFormat="1" ht="30">
+      <c r="A74" s="8"/>
+      <c r="B74" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="5" customFormat="1" ht="30">
+      <c r="A75" s="8"/>
+      <c r="B75" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="5" customFormat="1" ht="30">
+      <c r="A76" s="8"/>
+      <c r="B76" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="5" customFormat="1" ht="30">
+      <c r="A77" s="8"/>
+      <c r="B77" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="A78" s="8"/>
+      <c r="B78" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="A79" s="8"/>
+      <c r="B79" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="7" customFormat="1">
+      <c r="A81" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+    </row>
+    <row r="82" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="11" t="s">
+    <row r="83" spans="1:5">
+      <c r="A83" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-    </row>
-    <row r="75" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B75" s="7" t="s">
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+    </row>
+    <row r="84" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B84" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="7" customFormat="1">
-      <c r="B76" s="2" t="s">
+    <row r="85" spans="1:5" s="7" customFormat="1">
+      <c r="B85" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>166</v>
       </c>
     </row>

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="2160" windowWidth="33100" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="4220" yWindow="2040" windowWidth="33100" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="233">
   <si>
     <t>Race</t>
   </si>
@@ -453,9 +453,6 @@
     <t>Behavioral Health</t>
   </si>
   <si>
-    <t>Diagnosis</t>
-  </si>
-  <si>
     <t>SMI Indicator</t>
   </si>
   <si>
@@ -516,12 +513,6 @@
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:ArrestAgency/nc:OrganizationName</t>
   </si>
   <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:BehavioralHealthInformation/j:Evaluation/j:EvaluationDiagnosisDescriptionText</t>
-  </si>
-  <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:BehavioralHealthInformation/cscr-ext:SeriousMentalIllnessIndicator</t>
-  </si>
-  <si>
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Location[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest/j:ArrestLocation/@structures:ref]/nc:Address/nc:AddressSecondaryUnitText</t>
   </si>
   <si>
@@ -601,6 +592,132 @@
   </si>
   <si>
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonMilitarySummary/ac-bkg-codes:MilitaryServiceStatusCode</t>
+  </si>
+  <si>
+    <t>Serious Mental Ilness</t>
+  </si>
+  <si>
+    <t>HRN Indicator</t>
+  </si>
+  <si>
+    <t>High Risk Needs</t>
+  </si>
+  <si>
+    <t>SA Indicator</t>
+  </si>
+  <si>
+    <t>Substance Abuse</t>
+  </si>
+  <si>
+    <t>GMHC Indicatior</t>
+  </si>
+  <si>
+    <t>General Mental Health Condition</t>
+  </si>
+  <si>
+    <t>Diagnosis Description</t>
+  </si>
+  <si>
+    <t>Treatment Start Date</t>
+  </si>
+  <si>
+    <t>Treatment End Date</t>
+  </si>
+  <si>
+    <t>Treatment Provider</t>
+  </si>
+  <si>
+    <t>TCO Indicator</t>
+  </si>
+  <si>
+    <t>Treeatment Court Ordered</t>
+  </si>
+  <si>
+    <t>TA Indicator</t>
+  </si>
+  <si>
+    <t>Treatment Active Indicator</t>
+  </si>
+  <si>
+    <t>Prescribed Medication Name</t>
+  </si>
+  <si>
+    <t>Medication Product ID</t>
+  </si>
+  <si>
+    <t>Medication Dispensing Date</t>
+  </si>
+  <si>
+    <t>Medication Dose Text</t>
+  </si>
+  <si>
+    <t>Medicaid Indicator</t>
+  </si>
+  <si>
+    <t>Regional Behavioral Health Authority Assigment Text</t>
+  </si>
+  <si>
+    <t>Care Episode</t>
+  </si>
+  <si>
+    <t>Care EpisodeStart Date</t>
+  </si>
+  <si>
+    <t>Care Episode End Date</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:BehavioralHealthInformation[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person/cscr-ext:PersonBehavioralHealthInformation/@structures:ref]/j:Evaluation/j:EvaluationDiagnosisDescriptionText</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:BehavioralHealthInformation[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person/cscr-ext:PersonBehavioralHealthInformation/@structures:ref]/nc:Treatment/nc:ActivityDateRange/nc:StartDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:BehavioralHealthInformation[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person/cscr-ext:PersonBehavioralHealthInformation/@structures:ref]/nc:Treatment/nc:ActivityDateRange/nc:EndDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:BehavioralHealthInformation[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person/cscr-ext:PersonBehavioralHealthInformation/@structures:ref]/nc:Treatment/nc:TreatmentProvider/nc:EntityOrganization/nc:OrganizationName</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:BehavioralHealthInformation[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person/cscr-ext:PersonBehavioralHealthInformation/@structures:ref]/nc:Treatment/cscr-ext:TreatmentCourtOrderedIndicator</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:BehavioralHealthInformation[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person/cscr-ext:PersonBehavioralHealthInformation/@structures:ref]/nc:Treatment/cscr-ext:TreatmentActiveIndicator</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:BehavioralHealthInformation[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person/cscr-ext:PersonBehavioralHealthInformation/@structures:ref]/cscr-ext:PrescribedMedication/cyfs:Medication/nc:ItemName</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:BehavioralHealthInformation[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person/cscr-ext:PersonBehavioralHealthInformation/@structures:ref]/cscr-ext:PrescribedMedication/cyfs:Medication/cscr-ext:MedicationGeneralProductIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:BehavioralHealthInformation[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person/cscr-ext:PersonBehavioralHealthInformation/@structures:ref]/cscr-ext:PrescribedMedication/cyfs:MedicationDispensingDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:BehavioralHealthInformation[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person/cscr-ext:PersonBehavioralHealthInformation/@structures:ref]/cscr-ext:PrescribedMedication/cyfs:MedicationDoseMeasure/nc:MeasureValueText</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:BehavioralHealthInformation[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person/cscr-ext:PersonBehavioralHealthInformation/@structures:ref]/hs:MedicaidIndicator</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:BehavioralHealthInformation[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person/cscr-ext:PersonBehavioralHealthInformation/@structures:ref]/cscr-ext:RegionalBehavioralHealthAuthorityAssignmentText</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:CareEpisode[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person/cscr-ext:PersonCareEpisode/@structures:ref]/nc:ActivityDateRange/nc:StartDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:CareEpisode[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person/cscr-ext:PersonCareEpisode/@structures:ref]/nc:ActivityDateRange/nc:EndDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:BehavioralHealthInformation[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person/cscr-ext:PersonBehavioralHealthInformation/@structures:ref]/cscr-ext:SeriousMentalIllnessIndicator</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:BehavioralHealthInformation[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person/cscr-ext:PersonBehavioralHealthInformation/@structures:ref]/cscr-ext:HighRiskNeedsIndicator</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:BehavioralHealthInformation[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person/cscr-ext:PersonBehavioralHealthInformation/@structures:ref]/cscr-ext:SubstanceAbuseIndicator</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:BehavioralHealthInformation[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person/cscr-ext:PersonBehavioralHealthInformation/@structures:ref]/cscr-ext:GeneralMentalHealthConditionIndicator</t>
   </si>
 </sst>
 </file>
@@ -714,8 +831,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="725">
+  <cellStyleXfs count="727">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1516,7 +1635,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="725">
+  <cellStyles count="727">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1879,6 +1998,7 @@
     <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2241,6 +2361,7 @@
     <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2570,11 +2691,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2589,7 +2710,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -2716,73 +2837,73 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="15" customFormat="1" ht="30">
       <c r="A13" s="24"/>
       <c r="B13" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="15" customFormat="1" ht="30">
       <c r="A14" s="24"/>
       <c r="B14" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="30">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="30">
       <c r="A16" s="24"/>
       <c r="B16" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="15" customFormat="1" ht="30">
       <c r="A17" s="24"/>
       <c r="B17" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="15" customFormat="1" ht="30">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30">
@@ -2983,12 +3104,12 @@
     <row r="34" spans="1:13" s="7" customFormat="1" ht="30">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="21"/>
       <c r="E34" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="23"/>
@@ -3002,12 +3123,12 @@
     <row r="35" spans="1:13" s="7" customFormat="1" ht="45">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="21"/>
       <c r="E35" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="23"/>
@@ -3021,12 +3142,12 @@
     <row r="36" spans="1:13" s="7" customFormat="1" ht="30">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="21"/>
       <c r="E36" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="23"/>
@@ -3056,7 +3177,7 @@
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="7" customFormat="1" ht="60">
@@ -3069,7 +3190,7 @@
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="7" customFormat="1" ht="60">
@@ -3082,7 +3203,7 @@
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="7" customFormat="1" ht="60">
@@ -3095,7 +3216,7 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="7" customFormat="1" ht="45">
@@ -3108,7 +3229,7 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="7" customFormat="1">
@@ -3272,13 +3393,13 @@
     </row>
     <row r="57" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B57" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>88</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="7" customFormat="1" ht="45">
@@ -3326,7 +3447,7 @@
         <v>36</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8" t="s">
@@ -3437,14 +3558,14 @@
         <v>33</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="7" customFormat="1">
@@ -3459,67 +3580,67 @@
     <row r="72" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A72" s="8"/>
       <c r="B72" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A73" s="8"/>
       <c r="B73" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A74" s="8"/>
       <c r="B74" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A75" s="8"/>
       <c r="B75" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A76" s="8"/>
       <c r="B76" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A77" s="8"/>
       <c r="B77" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="7" customFormat="1" ht="45">
@@ -3554,12 +3675,12 @@
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="7" customFormat="1">
       <c r="A81" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -3569,38 +3690,197 @@
     <row r="82" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="7" customFormat="1">
+      <c r="A83" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-    </row>
-    <row r="84" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+    </row>
+    <row r="84" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B84" s="7" t="s">
         <v>144</v>
       </c>
+      <c r="C84" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="E84" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" s="7" customFormat="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B85" s="2" t="s">
-        <v>145</v>
+        <v>192</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>166</v>
-      </c>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B86" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B87" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B88" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B89" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B90" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="7" customFormat="1" ht="60">
+      <c r="B91" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B92" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B93" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B94" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B95" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B96" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B97" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B98" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B99" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="7" customFormat="1">
+      <c r="A100" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+    </row>
+    <row r="101" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B101" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B102" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="7" customFormat="1">
+      <c r="B103" s="2"/>
+      <c r="E103" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A8:J35">

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="2040" windowWidth="33100" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="4215" yWindow="2040" windowWidth="33105" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -2366,6 +2366,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2694,21 +2699,21 @@
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="112.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="112.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1">
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>156</v>
       </c>
@@ -2717,7 +2722,7 @@
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="36" customHeight="1">
+    <row r="2" spans="1:5" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2734,7 +2739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -2743,7 +2748,7 @@
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
         <v>8</v>
@@ -2756,7 +2761,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="16" t="s">
         <v>6</v>
@@ -2769,7 +2774,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
@@ -2778,7 +2783,7 @@
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2789,7 +2794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -2800,7 +2805,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>64</v>
       </c>
@@ -2809,7 +2814,7 @@
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5" ht="30">
+    <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
         <v>65</v>
@@ -2820,7 +2825,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>41</v>
       </c>
@@ -2829,7 +2834,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" ht="30">
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
         <v>141</v>
@@ -2840,7 +2845,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="15" customFormat="1" ht="30">
+    <row r="13" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="16" t="s">
         <v>176</v>
@@ -2851,7 +2856,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="15" customFormat="1" ht="30">
+    <row r="14" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="16" t="s">
         <v>177</v>
@@ -2862,7 +2867,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="15" customFormat="1" ht="30">
+    <row r="15" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
         <v>178</v>
@@ -2873,7 +2878,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="15" customFormat="1" ht="30">
+    <row r="16" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="16" t="s">
         <v>179</v>
@@ -2884,7 +2889,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="15" customFormat="1" ht="30">
+    <row r="17" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="16" t="s">
         <v>180</v>
@@ -2895,7 +2900,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="15" customFormat="1" ht="30">
+    <row r="18" spans="1:5" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
         <v>181</v>
@@ -2906,7 +2911,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30">
+    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12" t="s">
         <v>12</v>
@@ -2919,7 +2924,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30">
+    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>2</v>
@@ -2932,7 +2937,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30">
+    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>0</v>
@@ -2945,7 +2950,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30">
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12" t="s">
         <v>20</v>
@@ -2958,7 +2963,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45">
+    <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="2" t="s">
         <v>49</v>
@@ -2971,7 +2976,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="45">
+    <row r="24" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="2" t="s">
         <v>67</v>
@@ -2984,7 +2989,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45">
+    <row r="25" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="2" t="s">
         <v>70</v>
@@ -2997,7 +3002,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="45">
+    <row r="26" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="2" t="s">
         <v>69</v>
@@ -3010,7 +3015,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30">
+    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="16" t="s">
         <v>51</v>
@@ -3023,7 +3028,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30">
+    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="2" t="s">
         <v>53</v>
@@ -3036,7 +3041,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30">
+    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16" t="s">
         <v>55</v>
@@ -3049,7 +3054,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30">
+    <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>1</v>
@@ -3062,7 +3067,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30">
+    <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>66</v>
@@ -3073,7 +3078,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="32" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -3088,7 +3093,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="7" customFormat="1" ht="45">
+    <row r="33" spans="1:13" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
         <v>110</v>
@@ -3101,7 +3106,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="7" customFormat="1" ht="30">
+    <row r="34" spans="1:13" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>173</v>
@@ -3120,7 +3125,7 @@
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
     </row>
-    <row r="35" spans="1:13" s="7" customFormat="1" ht="45">
+    <row r="35" spans="1:13" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>189</v>
@@ -3139,7 +3144,7 @@
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
     </row>
-    <row r="36" spans="1:13" s="7" customFormat="1" ht="30">
+    <row r="36" spans="1:13" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>174</v>
@@ -3158,7 +3163,7 @@
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>142</v>
       </c>
@@ -3167,7 +3172,7 @@
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
     </row>
-    <row r="38" spans="1:13" s="7" customFormat="1" ht="45">
+    <row r="38" spans="1:13" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>12</v>
@@ -3180,7 +3185,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="7" customFormat="1" ht="60">
+    <row r="39" spans="1:13" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>51</v>
@@ -3193,7 +3198,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="7" customFormat="1" ht="60">
+    <row r="40" spans="1:13" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
@@ -3206,7 +3211,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="7" customFormat="1" ht="60">
+    <row r="41" spans="1:13" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -3219,7 +3224,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="7" customFormat="1" ht="45">
+    <row r="42" spans="1:13" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>1</v>
@@ -3232,7 +3237,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="7" customFormat="1">
+    <row r="43" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>26</v>
       </c>
@@ -3241,7 +3246,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:13" s="7" customFormat="1" ht="30">
+    <row r="44" spans="1:13" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>15</v>
       </c>
@@ -3252,7 +3257,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="7" customFormat="1" ht="30">
+    <row r="45" spans="1:13" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>16</v>
       </c>
@@ -3263,7 +3268,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="7" customFormat="1" ht="60">
+    <row r="46" spans="1:13" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
         <v>31</v>
@@ -3276,7 +3281,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="7" customFormat="1">
+    <row r="47" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>27</v>
       </c>
@@ -3285,7 +3290,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:13" s="7" customFormat="1" ht="30">
+    <row r="48" spans="1:13" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>13</v>
@@ -3298,7 +3303,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="49" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>60</v>
@@ -3311,7 +3316,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="45">
+    <row r="50" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="3" t="s">
         <v>93</v>
@@ -3324,7 +3329,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="7" customFormat="1">
+    <row r="51" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>28</v>
       </c>
@@ -3333,7 +3338,7 @@
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" s="7" customFormat="1" ht="45">
+    <row r="52" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
         <v>29</v>
@@ -3344,7 +3349,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="53" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="2" t="s">
         <v>17</v>
@@ -3357,7 +3362,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="7" customFormat="1">
+    <row r="54" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>42</v>
       </c>
@@ -3366,7 +3371,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
     </row>
-    <row r="55" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="55" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>19</v>
       </c>
@@ -3377,7 +3382,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="56" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>33</v>
       </c>
@@ -3391,7 +3396,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="7" customFormat="1" ht="45">
+    <row r="57" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>151</v>
       </c>
@@ -3402,7 +3407,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="7" customFormat="1" ht="45">
+    <row r="58" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>18</v>
@@ -3415,7 +3420,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="7" customFormat="1" ht="45">
+    <row r="59" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>89</v>
@@ -3427,7 +3432,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="7" customFormat="1" ht="45">
+    <row r="60" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="7" t="s">
         <v>91</v>
@@ -3439,7 +3444,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="61" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>43</v>
       </c>
@@ -3454,7 +3459,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="62" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>33</v>
       </c>
@@ -3469,7 +3474,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="63" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>33</v>
       </c>
@@ -3484,7 +3489,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="7" customFormat="1">
+    <row r="64" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>94</v>
       </c>
@@ -3493,7 +3498,7 @@
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
     </row>
-    <row r="65" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="65" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>95</v>
       </c>
@@ -3504,7 +3509,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="66" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>97</v>
       </c>
@@ -3515,7 +3520,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="7" customFormat="1" ht="45">
+    <row r="67" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>99</v>
       </c>
@@ -3526,7 +3531,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="7" customFormat="1" ht="60">
+    <row r="68" spans="1:5" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
         <v>101</v>
@@ -3539,7 +3544,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="69" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>33</v>
       </c>
@@ -3553,7 +3558,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="70" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>33</v>
       </c>
@@ -3568,7 +3573,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="7" customFormat="1">
+    <row r="71" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>105</v>
       </c>
@@ -3577,7 +3582,7 @@
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
     </row>
-    <row r="72" spans="1:5" s="5" customFormat="1" ht="30">
+    <row r="72" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="18" t="s">
         <v>157</v>
@@ -3588,7 +3593,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="5" customFormat="1" ht="30">
+    <row r="73" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="18" t="s">
         <v>158</v>
@@ -3599,7 +3604,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="5" customFormat="1" ht="30">
+    <row r="74" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="18" t="s">
         <v>159</v>
@@ -3610,7 +3615,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="5" customFormat="1" ht="30">
+    <row r="75" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="18" t="s">
         <v>160</v>
@@ -3621,7 +3626,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="5" customFormat="1" ht="30">
+    <row r="76" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="18" t="s">
         <v>161</v>
@@ -3632,7 +3637,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="5" customFormat="1" ht="30">
+    <row r="77" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="18" t="s">
         <v>162</v>
@@ -3643,7 +3648,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="7" customFormat="1" ht="45">
+    <row r="78" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="18" t="s">
         <v>106</v>
@@ -3654,7 +3659,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="7" customFormat="1" ht="45">
+    <row r="79" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="18" t="s">
         <v>107</v>
@@ -3665,7 +3670,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="80" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8" t="s">
         <v>108</v>
@@ -3678,7 +3683,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="7" customFormat="1">
+    <row r="81" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>153</v>
       </c>
@@ -3687,7 +3692,7 @@
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
     </row>
-    <row r="82" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="82" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="s">
         <v>154</v>
@@ -3698,7 +3703,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="7" customFormat="1">
+    <row r="83" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>143</v>
       </c>
@@ -3707,7 +3712,7 @@
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
     </row>
-    <row r="84" spans="1:5" s="7" customFormat="1" ht="45">
+    <row r="84" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
         <v>144</v>
       </c>
@@ -3718,7 +3723,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="85" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>192</v>
       </c>
@@ -3729,7 +3734,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="86" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
         <v>194</v>
       </c>
@@ -3740,7 +3745,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="87" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
         <v>196</v>
       </c>
@@ -3751,7 +3756,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="7" customFormat="1" ht="45">
+    <row r="88" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
         <v>198</v>
       </c>
@@ -3759,7 +3764,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="7" customFormat="1" ht="45">
+    <row r="89" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
         <v>199</v>
       </c>
@@ -3767,7 +3772,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="7" customFormat="1" ht="45">
+    <row r="90" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
         <v>200</v>
       </c>
@@ -3775,7 +3780,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="7" customFormat="1" ht="60">
+    <row r="91" spans="1:5" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
         <v>201</v>
       </c>
@@ -3783,7 +3788,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="7" customFormat="1" ht="45">
+    <row r="92" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
         <v>202</v>
       </c>
@@ -3794,7 +3799,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="93" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
         <v>204</v>
       </c>
@@ -3805,7 +3810,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="7" customFormat="1" ht="45">
+    <row r="94" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
         <v>206</v>
       </c>
@@ -3813,7 +3818,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="7" customFormat="1" ht="45">
+    <row r="95" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>207</v>
       </c>
@@ -3821,7 +3826,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="7" customFormat="1" ht="45">
+    <row r="96" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
         <v>208</v>
       </c>
@@ -3829,7 +3834,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="7" customFormat="1" ht="45">
+    <row r="97" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
         <v>209</v>
       </c>
@@ -3837,7 +3842,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="98" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>210</v>
       </c>
@@ -3845,7 +3850,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="7" customFormat="1" ht="45">
+    <row r="99" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
         <v>211</v>
       </c>
@@ -3853,7 +3858,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="7" customFormat="1">
+    <row r="100" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>212</v>
       </c>
@@ -3862,7 +3867,7 @@
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
     </row>
-    <row r="101" spans="1:5" s="7" customFormat="1" ht="45">
+    <row r="101" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
         <v>213</v>
       </c>
@@ -3870,7 +3875,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="7" customFormat="1" ht="45">
+    <row r="102" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
         <v>214</v>
       </c>
@@ -3878,7 +3883,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="7" customFormat="1">
+    <row r="103" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="E103" s="3"/>
     </row>

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="2040" windowWidth="33105" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="885" yWindow="2070" windowWidth="33105" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="235">
   <si>
     <t>Race</t>
   </si>
@@ -60,9 +60,6 @@
     <t>DOB</t>
   </si>
   <si>
-    <t>Booking number</t>
-  </si>
-  <si>
     <t>Immigration Hold</t>
   </si>
   <si>
@@ -718,6 +715,15 @@
   </si>
   <si>
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cscr-ext:BehavioralHealthInformation[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person/cscr-ext:PersonBehavioralHealthInformation/@structures:ref]/cscr-ext:GeneralMentalHealthConditionIndicator</t>
+  </si>
+  <si>
+    <t>Booking ID</t>
+  </si>
+  <si>
+    <t>Booking Subject Number</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingAgencyRecordIdentification/nc:IdentificationID</t>
   </si>
 </sst>
 </file>
@@ -793,6 +799,7 @@
       <sz val="12"/>
       <color theme="3" tint="0.39997558519241921"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2696,11 +2703,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2715,7 +2722,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -2733,7 +2740,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>11</v>
@@ -2758,7 +2765,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2771,12 +2778,12 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -2785,29 +2792,29 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -2817,17 +2824,17 @@
     <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -2837,78 +2844,78 @@
     <row r="12" spans="1:5" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -2917,11 +2924,11 @@
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -2930,11 +2937,11 @@
         <v>2</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -2943,115 +2950,115 @@
         <v>0</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>50</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>54</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -3060,61 +3067,61 @@
         <v>1</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="6"/>
       <c r="E31" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="21"/>
       <c r="E34" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="23"/>
@@ -3128,12 +3135,12 @@
     <row r="35" spans="1:13" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="21"/>
       <c r="E35" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="23"/>
@@ -3147,12 +3154,12 @@
     <row r="36" spans="1:13" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="21"/>
       <c r="E36" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="23"/>
@@ -3165,7 +3172,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -3178,50 +3185,50 @@
         <v>12</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
@@ -3230,16 +3237,16 @@
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -3248,421 +3255,421 @@
     </row>
     <row r="44" spans="1:13" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:13" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="3"/>
+    <row r="48" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
       <c r="E48" s="3" t="s">
-        <v>87</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>60</v>
+        <v>233</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+    <row r="52" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="55" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>129</v>
-      </c>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
     </row>
     <row r="56" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="B56" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="E56" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="B57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8" t="s">
-        <v>134</v>
+      <c r="E61" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-    </row>
-    <row r="65" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
     </row>
     <row r="66" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="E67" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="C68" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="7" t="s">
+    <row r="69" spans="1:5" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="C69" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C68" s="8" t="s">
+    <row r="70" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8" t="s">
+      <c r="C70" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C69" s="7" t="s">
+    <row r="71" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-    </row>
-    <row r="72" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
     </row>
     <row r="73" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="18" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="2" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -3670,222 +3677,233 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
-      <c r="B80" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>109</v>
-      </c>
+      <c r="B80" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+    </row>
+    <row r="83" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-    </row>
-    <row r="82" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8" t="s">
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
+    </row>
+    <row r="84" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+    </row>
+    <row r="85" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B85" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-    </row>
-    <row r="84" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B84" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C84" s="7" t="s">
+      <c r="C85" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="C86" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B85" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B86" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B91" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="B92" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E92" s="3" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="B91" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B92" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B98" s="2" t="s">
-        <v>210</v>
+      <c r="B98" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+    </row>
+    <row r="102" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B102" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-    </row>
-    <row r="101" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B101" s="7" t="s">
+    <row r="103" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E103" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B102" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="2"/>
-      <c r="E103" s="3"/>
+    <row r="104" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="2"/>
+      <c r="E104" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A8:J35">

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
@@ -10,11 +10,6 @@
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -730,7 +725,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -802,8 +797,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -828,6 +837,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -838,7 +857,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="727">
+  <cellStyleXfs count="729">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1566,6 +1585,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1642,7 +1663,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="727">
+  <cellStyles count="729">
+    <cellStyle name="Bad 2" xfId="727"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2369,6 +2391,7 @@
     <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Neutral 2" xfId="728"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2706,8 +2729,8 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <pane ySplit="2" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E102" sqref="E102:E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3389,40 +3412,40 @@
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+    <row r="58" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E58" s="7" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
@@ -3912,10 +3935,5 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="2070" windowWidth="33105" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="5180" yWindow="2600" windowWidth="26040" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -385,9 +390,6 @@
     <t>Facility ID</t>
   </si>
   <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Case[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Case/@structures:ref]/j:CaseAugmentation/j:CaseCourt/j:CourtName</t>
-  </si>
-  <si>
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/nc:ActivityDate/nc:DateTime</t>
   </si>
   <si>
@@ -400,30 +402,6 @@
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/cyfs:NextCourtEvent[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/nc:ActivityDate/nc:Date</t>
   </si>
   <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/nc:ActivityDate/nc:Date</t>
-  </si>
-  <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/cscr-ext:DetentiontImmigrationHoldIndicator</t>
-  </si>
-  <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionAreaIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionBedIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionCellIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/nc:SupervisionCustodyStatus/nc:StatusDescriptionText</t>
-  </si>
-  <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/cscr-ext:InmateWorkReleaseIndicator</t>
-  </si>
-  <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/cscr-ext:InmateWorkerIndicator</t>
-  </si>
-  <si>
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonAugmentation/j:PersonStateFingerprintIdentification/nc:IdentificationID</t>
   </si>
   <si>
@@ -469,18 +447,12 @@
     <t>Supervision Scheduled  Release Date</t>
   </si>
   <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionReleaseEligibilityDate/nc:Date</t>
-  </si>
-  <si>
     <t>Release</t>
   </si>
   <si>
     <t>Actual Release Date</t>
   </si>
   <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Release[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/nc:ActivityDate/nc:DateTime</t>
-  </si>
-  <si>
     <t>Custody Status Change</t>
   </si>
   <si>
@@ -719,6 +691,39 @@
   </si>
   <si>
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingAgencyRecordIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Case[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityCaseAssociation/nc:Case/@structures:ref]/j:CaseAugmentation/j:CaseCourt/j:CourtName</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityCaseAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionReleaseEligibilityDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityCaseAssociation/nc:Activity/@structures:ref]/nc:ActivityDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityCaseAssociation/nc:Activity/@structures:ref]/cscr-ext:DetentiontImmigrationHoldIndicator</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityCaseAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionAreaIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityCaseAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionBedIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityCaseAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionCellIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityCaseAssociation/nc:Activity/@structures:ref]/nc:SupervisionCustodyStatus/nc:StatusDescriptionText</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityCaseAssociation/nc:Activity/@structures:ref]/cscr-ext:InmateWorkReleaseIndicator</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Detention[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityCaseAssociation/nc:Activity/@structures:ref]/cscr-ext:InmateWorkerIndicator</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Release[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityCaseAssociation/nc:Activity/@structures:ref]/nc:ActivityDate/nc:DateTime</t>
   </si>
 </sst>
 </file>
@@ -2728,31 +2733,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E102" sqref="E102:E103"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="112.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="112.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="36" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="7" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
@@ -2769,7 +2774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -2778,7 +2783,7 @@
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
         <v>8</v>
@@ -2791,7 +2796,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="12"/>
       <c r="B5" s="16" t="s">
         <v>6</v>
@@ -2804,7 +2809,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
@@ -2813,7 +2818,7 @@
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
@@ -2824,7 +2829,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
@@ -2835,7 +2840,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
         <v>63</v>
       </c>
@@ -2844,7 +2849,7 @@
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30">
       <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
         <v>64</v>
@@ -2852,10 +2857,10 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
         <v>40</v>
       </c>
@@ -2864,84 +2869,84 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="30">
       <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="15" customFormat="1" ht="31.5">
       <c r="A13" s="24"/>
       <c r="B13" s="16" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="15" customFormat="1" ht="31.5">
       <c r="A14" s="24"/>
       <c r="B14" s="16" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="15" customFormat="1" ht="31.5">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="15" customFormat="1" ht="31.5">
       <c r="A16" s="24"/>
       <c r="B16" s="16" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="15" customFormat="1" ht="31.5">
       <c r="A17" s="24"/>
       <c r="B17" s="16" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="15" customFormat="1" ht="47.25">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.5">
       <c r="A19" s="12"/>
       <c r="B19" s="12" t="s">
         <v>12</v>
@@ -2954,7 +2959,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="31.5">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>2</v>
@@ -2967,7 +2972,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="31.5">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>0</v>
@@ -2980,7 +2985,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="31.5">
       <c r="A22" s="12"/>
       <c r="B22" s="12" t="s">
         <v>19</v>
@@ -2993,7 +2998,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="47.25">
       <c r="A23" s="6"/>
       <c r="B23" s="2" t="s">
         <v>48</v>
@@ -3003,10 +3008,10 @@
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="47.25">
       <c r="A24" s="6"/>
       <c r="B24" s="2" t="s">
         <v>66</v>
@@ -3019,7 +3024,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="47.25">
       <c r="A25" s="6"/>
       <c r="B25" s="2" t="s">
         <v>69</v>
@@ -3032,7 +3037,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="47.25">
       <c r="A26" s="6"/>
       <c r="B26" s="2" t="s">
         <v>68</v>
@@ -3045,7 +3050,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="31.5">
       <c r="A27" s="16"/>
       <c r="B27" s="16" t="s">
         <v>50</v>
@@ -3058,7 +3063,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="31.5">
       <c r="A28" s="16"/>
       <c r="B28" s="2" t="s">
         <v>52</v>
@@ -3071,7 +3076,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="31.5">
       <c r="A29" s="16"/>
       <c r="B29" s="16" t="s">
         <v>54</v>
@@ -3084,7 +3089,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="31.5">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>1</v>
@@ -3097,7 +3102,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="31.5">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>65</v>
@@ -3108,7 +3113,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="7" customFormat="1" ht="31.5">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -3123,7 +3128,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" s="7" customFormat="1" ht="47.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
         <v>109</v>
@@ -3136,15 +3141,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="7" customFormat="1" ht="47.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="21"/>
       <c r="E34" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="23"/>
@@ -3155,15 +3160,15 @@
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
     </row>
-    <row r="35" spans="1:13" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="7" customFormat="1" ht="47.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="21"/>
       <c r="E35" s="7" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="23"/>
@@ -3174,15 +3179,15 @@
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
     </row>
-    <row r="36" spans="1:13" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="7" customFormat="1" ht="30">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="21"/>
       <c r="E36" s="7" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="23"/>
@@ -3193,16 +3198,16 @@
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="11" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
     </row>
-    <row r="38" spans="1:13" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="7" customFormat="1" ht="45">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>12</v>
@@ -3212,10 +3217,10 @@
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="7" customFormat="1" ht="63">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>50</v>
@@ -3225,10 +3230,10 @@
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="7" customFormat="1" ht="63">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>52</v>
@@ -3238,10 +3243,10 @@
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="7" customFormat="1" ht="63">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -3251,10 +3256,10 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="7" customFormat="1" ht="47.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>1</v>
@@ -3264,10 +3269,10 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="7" customFormat="1">
       <c r="A43" s="10" t="s">
         <v>25</v>
       </c>
@@ -3276,7 +3281,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:13" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="7" customFormat="1" ht="30">
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
@@ -3284,10 +3289,10 @@
         <v>56</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="7" customFormat="1" ht="31.5">
       <c r="B45" s="2" t="s">
         <v>15</v>
       </c>
@@ -3295,10 +3300,10 @@
         <v>57</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="7" customFormat="1" ht="63">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
         <v>30</v>
@@ -3308,10 +3313,10 @@
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="7" customFormat="1">
       <c r="A47" s="10" t="s">
         <v>26</v>
       </c>
@@ -3320,21 +3325,21 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="7" customFormat="1">
       <c r="A48" s="13"/>
       <c r="B48" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="7" customFormat="1" ht="31.5">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>58</v>
@@ -3344,7 +3349,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" s="7" customFormat="1" ht="31.5">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>59</v>
@@ -3354,10 +3359,10 @@
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="47.25">
       <c r="A51" s="12"/>
       <c r="B51" s="3" t="s">
         <v>92</v>
@@ -3367,10 +3372,10 @@
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="7" customFormat="1">
       <c r="A52" s="10" t="s">
         <v>27</v>
       </c>
@@ -3379,7 +3384,7 @@
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
     </row>
-    <row r="53" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
         <v>28</v>
@@ -3387,10 +3392,10 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="7" customFormat="1" ht="31.5">
       <c r="A54" s="8"/>
       <c r="B54" s="2" t="s">
         <v>16</v>
@@ -3400,10 +3405,10 @@
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="7" customFormat="1">
       <c r="A55" s="10" t="s">
         <v>41</v>
       </c>
@@ -3412,18 +3417,18 @@
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B56" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>87</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="7" customFormat="1" ht="31.5">
       <c r="B57" s="2" t="s">
         <v>18</v>
       </c>
@@ -3431,10 +3436,10 @@
         <v>34</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="7" customFormat="1" ht="31.5">
       <c r="A58" s="7" t="s">
         <v>32</v>
       </c>
@@ -3445,10 +3450,10 @@
         <v>33</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="7" customFormat="1" ht="47.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>17</v>
@@ -3458,10 +3463,10 @@
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="7" customFormat="1" ht="47.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>88</v>
@@ -3470,10 +3475,10 @@
         <v>89</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="7" customFormat="1" ht="47.25">
       <c r="A61" s="3"/>
       <c r="B61" s="7" t="s">
         <v>90</v>
@@ -3482,10 +3487,10 @@
         <v>91</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="7" customFormat="1" ht="31.5">
       <c r="A62" s="8" t="s">
         <v>42</v>
       </c>
@@ -3493,14 +3498,14 @@
         <v>35</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="7" customFormat="1" ht="31.5">
       <c r="A63" s="8" t="s">
         <v>32</v>
       </c>
@@ -3512,10 +3517,10 @@
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A64" s="8" t="s">
         <v>32</v>
       </c>
@@ -3527,10 +3532,10 @@
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="7" customFormat="1">
       <c r="A65" s="10" t="s">
         <v>93</v>
       </c>
@@ -3539,7 +3544,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
     </row>
-    <row r="66" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" s="7" customFormat="1" ht="31.5">
       <c r="B66" s="2" t="s">
         <v>94</v>
       </c>
@@ -3550,7 +3555,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" s="7" customFormat="1" ht="31.5">
       <c r="B67" s="2" t="s">
         <v>96</v>
       </c>
@@ -3561,7 +3566,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B68" s="2" t="s">
         <v>98</v>
       </c>
@@ -3572,7 +3577,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" s="7" customFormat="1" ht="63">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
         <v>100</v>
@@ -3585,7 +3590,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" s="7" customFormat="1" ht="31.5">
       <c r="A70" s="7" t="s">
         <v>32</v>
       </c>
@@ -3599,22 +3604,22 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" s="7" customFormat="1" ht="31.5">
       <c r="A71" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="7" customFormat="1">
       <c r="A72" s="10" t="s">
         <v>104</v>
       </c>
@@ -3623,73 +3628,73 @@
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
     </row>
-    <row r="73" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A73" s="8"/>
       <c r="B73" s="18" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="5" customFormat="1" ht="31.5">
       <c r="A74" s="8"/>
       <c r="B74" s="18" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="5" customFormat="1" ht="31.5">
       <c r="A75" s="8"/>
       <c r="B75" s="18" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="5" customFormat="1" ht="31.5">
       <c r="A76" s="8"/>
       <c r="B76" s="18" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="5" customFormat="1" ht="31.5">
       <c r="A77" s="8"/>
       <c r="B77" s="18" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="5" customFormat="1" ht="31.5">
       <c r="A78" s="8"/>
       <c r="B78" s="18" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="7" customFormat="1" ht="47.25">
       <c r="A79" s="8"/>
       <c r="B79" s="18" t="s">
         <v>105</v>
@@ -3700,7 +3705,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" s="7" customFormat="1" ht="47.25">
       <c r="A80" s="8"/>
       <c r="B80" s="18" t="s">
         <v>106</v>
@@ -3711,7 +3716,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" s="7" customFormat="1" ht="31.5">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="s">
         <v>107</v>
@@ -3721,210 +3726,210 @@
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="7" customFormat="1">
       <c r="A82" s="10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
     </row>
-    <row r="83" spans="1:5" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="7" customFormat="1">
       <c r="A84" s="10" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
     </row>
-    <row r="85" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" s="7" customFormat="1" ht="47.25">
       <c r="B85" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C85" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B86" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="7" customFormat="1" ht="47.25">
+      <c r="B87" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="7" customFormat="1" ht="47.25">
+      <c r="B88" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="7" customFormat="1" ht="47.25">
+      <c r="B89" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="7" customFormat="1" ht="47.25">
+      <c r="B90" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="7" customFormat="1" ht="47.25">
+      <c r="B91" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="7" customFormat="1" ht="63">
+      <c r="B92" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="7" customFormat="1" ht="47.25">
+      <c r="B93" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B86" s="2" t="s">
+      <c r="C93" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="E93" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="7" customFormat="1" ht="47.25">
+      <c r="B94" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B87" s="7" t="s">
+      <c r="C94" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="E94" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="7" customFormat="1" ht="47.25">
+      <c r="B95" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B88" s="7" t="s">
+      <c r="E95" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="7" customFormat="1" ht="47.25">
+      <c r="B96" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="E96" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="7" customFormat="1" ht="47.25">
+      <c r="B97" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B89" s="7" t="s">
+      <c r="E97" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="7" customFormat="1" ht="47.25">
+      <c r="B98" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E98" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="7" customFormat="1" ht="47.25">
+      <c r="B99" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="7" customFormat="1" ht="47.25">
+      <c r="B100" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B90" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B91" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="B92" s="7" t="s">
+    <row r="101" spans="1:5" s="7" customFormat="1">
+      <c r="A101" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B93" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B94" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B95" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B96" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B97" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B98" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B99" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B100" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
-        <v>211</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
     </row>
-    <row r="102" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" s="7" customFormat="1" ht="47.25">
       <c r="B102" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="7" customFormat="1" ht="47.25">
       <c r="B103" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="7" customFormat="1">
       <c r="B104" s="2"/>
       <c r="E104" s="3"/>
     </row>
@@ -3935,5 +3940,10 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="2600" windowWidth="26040" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="11700" yWindow="1260" windowWidth="26040" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -354,27 +354,9 @@
     <t>registered sex offender indicator</t>
   </si>
   <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Charge[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/j:Charge/@structures:ref]/j:ChargeSequenceID</t>
-  </si>
-  <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Charge[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/j:Charge/@structures:ref]/j:ChargeDescriptionText</t>
-  </si>
-  <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Charge[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/j:Charge/@structures:ref]/j:ChargeStatute/j:StatuteCodeSectionIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Charge[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/j:Charge/@structures:ref]/j:ChargeCategoryDescriptionText</t>
-  </si>
-  <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Charge[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/j:Charge/@structures:ref]/j:ChargeHighestIndicator</t>
-  </si>
-  <si>
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Location[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest/j:ArrestLocation/@structures:ref]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLongitude/nc:LongitudeDegreeValue</t>
   </si>
   <si>
-    <t>/cscr-doc:CustodyStatusChangeReport//cscr-ext:Custody/nc:Location[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest/j:ArrestLocation/@structures:ref]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLatitude/nc:LatitudeDegreeValue</t>
-  </si>
-  <si>
     <t>Socio-economic Status</t>
   </si>
   <si>
@@ -474,9 +456,6 @@
     <t>Arrest Location - Zip</t>
   </si>
   <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:ArrestAgency/nc:OrganizationName</t>
-  </si>
-  <si>
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Location[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest/j:ArrestLocation/@structures:ref]/nc:Address/nc:AddressSecondaryUnitText</t>
   </si>
   <si>
@@ -501,9 +480,6 @@
     <t>Hold for Agency</t>
   </si>
   <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Charge[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/j:Charge/@structures:ref]/cscr-ext:HoldForAgency/nc:OrganizationName</t>
-  </si>
-  <si>
     <t>Occupation</t>
   </si>
   <si>
@@ -724,6 +700,30 @@
   </si>
   <si>
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Release[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityCaseAssociation/nc:Activity/@structures:ref]/nc:ActivityDate/nc:DateTime</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:Arrest/@structures:ref]/j:ArrestAgency/nc:OrganizationName</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Location[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest/j:ArrestLocation/@structures:ref]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLatitude/nc:LatitudeDegreeValue</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Charge[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest/j:ArrestCharge/@structures:ref]/j:ChargeSequenceID</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Charge[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest/j:ArrestCharge/@structures:ref]/j:ChargeDescriptionText</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Charge[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest/j:ArrestCharge/@structures:ref]/j:ChargeStatute/j:StatuteCodeSectionIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Charge[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest/j:ArrestCharge/@structures:ref]/j:ChargeCategoryDescriptionText</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Charge[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest/j:ArrestCharge/@structures:ref]/j:ChargeHighestIndicator</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Charge[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest/j:ArrestCharge/@structures:ref]/cscr-ext:HoldForAgency/nc:OrganizationName</t>
   </si>
 </sst>
 </file>
@@ -862,7 +862,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="729">
+  <cellStyleXfs count="747">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1592,6 +1592,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1668,7 +1686,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="729">
+  <cellStyles count="747">
     <cellStyle name="Bad 2" xfId="727"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2033,6 +2051,15 @@
     <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2396,6 +2423,15 @@
     <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral 2" xfId="728"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2734,8 +2770,8 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2750,7 +2786,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -2857,7 +2893,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="16" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2872,81 +2908,81 @@
     <row r="12" spans="1:5" s="8" customFormat="1" ht="30">
       <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="15" customFormat="1" ht="31.5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="15" customFormat="1" ht="30">
       <c r="A13" s="24"/>
       <c r="B13" s="16" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="15" customFormat="1" ht="31.5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="15" customFormat="1" ht="30">
       <c r="A14" s="24"/>
       <c r="B14" s="16" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="15" customFormat="1" ht="31.5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="15" customFormat="1" ht="30">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="15" customFormat="1" ht="31.5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="15" customFormat="1" ht="30">
       <c r="A16" s="24"/>
       <c r="B16" s="16" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="15" customFormat="1" ht="31.5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="15" customFormat="1" ht="30">
       <c r="A17" s="24"/>
       <c r="B17" s="16" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="15" customFormat="1" ht="47.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="15" customFormat="1" ht="30">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="31.5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30">
       <c r="A19" s="12"/>
       <c r="B19" s="12" t="s">
         <v>12</v>
@@ -2959,7 +2995,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="31.5">
+    <row r="20" spans="1:5" ht="30">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>2</v>
@@ -2972,7 +3008,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="31.5">
+    <row r="21" spans="1:5" ht="30">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>0</v>
@@ -2985,7 +3021,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="31.5">
+    <row r="22" spans="1:5" ht="30">
       <c r="A22" s="12"/>
       <c r="B22" s="12" t="s">
         <v>19</v>
@@ -2998,7 +3034,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="47.25">
+    <row r="23" spans="1:5" ht="45">
       <c r="A23" s="6"/>
       <c r="B23" s="2" t="s">
         <v>48</v>
@@ -3008,10 +3044,10 @@
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="47.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45">
       <c r="A24" s="6"/>
       <c r="B24" s="2" t="s">
         <v>66</v>
@@ -3024,7 +3060,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="47.25">
+    <row r="25" spans="1:5" ht="45">
       <c r="A25" s="6"/>
       <c r="B25" s="2" t="s">
         <v>69</v>
@@ -3037,7 +3073,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="47.25">
+    <row r="26" spans="1:5" ht="45">
       <c r="A26" s="6"/>
       <c r="B26" s="2" t="s">
         <v>68</v>
@@ -3050,7 +3086,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="31.5">
+    <row r="27" spans="1:5" ht="30">
       <c r="A27" s="16"/>
       <c r="B27" s="16" t="s">
         <v>50</v>
@@ -3063,7 +3099,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="31.5">
+    <row r="28" spans="1:5" ht="30">
       <c r="A28" s="16"/>
       <c r="B28" s="2" t="s">
         <v>52</v>
@@ -3076,7 +3112,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="31.5">
+    <row r="29" spans="1:5" ht="30">
       <c r="A29" s="16"/>
       <c r="B29" s="16" t="s">
         <v>54</v>
@@ -3089,7 +3125,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="31.5">
+    <row r="30" spans="1:5" ht="30">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>1</v>
@@ -3102,7 +3138,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="31.5">
+    <row r="31" spans="1:5" ht="30">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>65</v>
@@ -3113,22 +3149,22 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="7" customFormat="1" ht="31.5">
+    <row r="32" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="7" customFormat="1" ht="47.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="7" customFormat="1" ht="45">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
         <v>109</v>
@@ -3138,18 +3174,18 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="7" customFormat="1" ht="47.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="7" customFormat="1" ht="30">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="21"/>
       <c r="E34" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="23"/>
@@ -3160,15 +3196,15 @@
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
     </row>
-    <row r="35" spans="1:13" s="7" customFormat="1" ht="47.25">
+    <row r="35" spans="1:13" s="7" customFormat="1" ht="45">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="21"/>
       <c r="E35" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="23"/>
@@ -3182,12 +3218,12 @@
     <row r="36" spans="1:13" s="7" customFormat="1" ht="30">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="21"/>
       <c r="E36" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="23"/>
@@ -3200,7 +3236,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -3217,10 +3253,10 @@
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="7" customFormat="1" ht="63">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="7" customFormat="1" ht="60">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>50</v>
@@ -3230,10 +3266,10 @@
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="7" customFormat="1" ht="63">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="7" customFormat="1" ht="60">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>52</v>
@@ -3243,10 +3279,10 @@
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="7" customFormat="1" ht="63">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="7" customFormat="1" ht="60">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -3256,10 +3292,10 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="7" customFormat="1" ht="47.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="7" customFormat="1" ht="45">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>1</v>
@@ -3269,7 +3305,7 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="7" customFormat="1">
@@ -3289,10 +3325,10 @@
         <v>56</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="7" customFormat="1" ht="31.5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="7" customFormat="1" ht="30">
       <c r="B45" s="2" t="s">
         <v>15</v>
       </c>
@@ -3300,10 +3336,10 @@
         <v>57</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="7" customFormat="1" ht="63">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="7" customFormat="1" ht="60">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
         <v>30</v>
@@ -3313,7 +3349,7 @@
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="7" customFormat="1">
@@ -3328,18 +3364,18 @@
     <row r="48" spans="1:13" s="7" customFormat="1">
       <c r="A48" s="13"/>
       <c r="B48" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="7" customFormat="1" ht="31.5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>58</v>
@@ -3349,7 +3385,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="7" customFormat="1" ht="31.5">
+    <row r="50" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>59</v>
@@ -3359,20 +3395,20 @@
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="47.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45">
       <c r="A51" s="12"/>
       <c r="B51" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1">
@@ -3392,10 +3428,10 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="7" customFormat="1" ht="31.5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A54" s="8"/>
       <c r="B54" s="2" t="s">
         <v>16</v>
@@ -3405,7 +3441,7 @@
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="7" customFormat="1">
@@ -3419,16 +3455,16 @@
     </row>
     <row r="56" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B56" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>87</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="7" customFormat="1" ht="31.5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B57" s="2" t="s">
         <v>18</v>
       </c>
@@ -3436,10 +3472,10 @@
         <v>34</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="7" customFormat="1" ht="31.5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A58" s="7" t="s">
         <v>32</v>
       </c>
@@ -3450,10 +3486,10 @@
         <v>33</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="7" customFormat="1" ht="47.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>17</v>
@@ -3463,10 +3499,10 @@
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="7" customFormat="1" ht="47.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>88</v>
@@ -3475,10 +3511,10 @@
         <v>89</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="7" customFormat="1" ht="47.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A61" s="3"/>
       <c r="B61" s="7" t="s">
         <v>90</v>
@@ -3487,10 +3523,10 @@
         <v>91</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="7" customFormat="1" ht="31.5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A62" s="8" t="s">
         <v>42</v>
       </c>
@@ -3498,14 +3534,14 @@
         <v>35</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="7" customFormat="1" ht="31.5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A63" s="8" t="s">
         <v>32</v>
       </c>
@@ -3517,7 +3553,7 @@
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="7" customFormat="1" ht="30">
@@ -3532,7 +3568,7 @@
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="7" customFormat="1">
@@ -3544,7 +3580,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
     </row>
-    <row r="66" spans="1:5" s="7" customFormat="1" ht="31.5">
+    <row r="66" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B66" s="2" t="s">
         <v>94</v>
       </c>
@@ -3552,10 +3588,10 @@
         <v>95</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="7" customFormat="1" ht="31.5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B67" s="2" t="s">
         <v>96</v>
       </c>
@@ -3563,10 +3599,10 @@
         <v>97</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="7" customFormat="1" ht="45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B68" s="2" t="s">
         <v>98</v>
       </c>
@@ -3574,10 +3610,10 @@
         <v>99</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="7" customFormat="1" ht="63">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="7" customFormat="1" ht="60">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
         <v>100</v>
@@ -3586,11 +3622,11 @@
         <v>101</v>
       </c>
       <c r="D69" s="8"/>
-      <c r="E69" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="7" customFormat="1" ht="31.5">
+      <c r="E69" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A70" s="7" t="s">
         <v>32</v>
       </c>
@@ -3601,22 +3637,22 @@
         <v>103</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="7" customFormat="1" ht="31.5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A71" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D71" s="8"/>
-      <c r="E71" s="8" t="s">
-        <v>160</v>
+      <c r="E71" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="7" customFormat="1">
@@ -3631,70 +3667,70 @@
     <row r="73" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A73" s="8"/>
       <c r="B73" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="5" customFormat="1" ht="31.5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A74" s="8"/>
       <c r="B74" s="18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="5" customFormat="1" ht="31.5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A75" s="8"/>
       <c r="B75" s="18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="5" customFormat="1" ht="31.5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A76" s="8"/>
       <c r="B76" s="18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="5" customFormat="1" ht="31.5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A77" s="8"/>
       <c r="B77" s="18" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="5" customFormat="1" ht="31.5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A78" s="8"/>
       <c r="B78" s="18" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="7" customFormat="1" ht="47.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A79" s="8"/>
       <c r="B79" s="18" t="s">
         <v>105</v>
@@ -3702,10 +3738,10 @@
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="7" customFormat="1" ht="47.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A80" s="8"/>
       <c r="B80" s="18" t="s">
         <v>106</v>
@@ -3713,10 +3749,10 @@
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="7" customFormat="1" ht="31.5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="s">
         <v>107</v>
@@ -3726,12 +3762,12 @@
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="2" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="7" customFormat="1">
       <c r="A82" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -3741,192 +3777,192 @@
     <row r="83" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="7" customFormat="1">
       <c r="A84" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
     </row>
-    <row r="85" spans="1:5" s="7" customFormat="1" ht="47.25">
+    <row r="85" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B85" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B86" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B87" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B88" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B89" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B90" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B91" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="E91" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="7" customFormat="1" ht="60">
+      <c r="B92" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" s="7" customFormat="1" ht="47.25">
-      <c r="B87" s="7" t="s">
+      <c r="E92" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B93" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" s="7" customFormat="1" ht="47.25">
-      <c r="B88" s="7" t="s">
+      <c r="E93" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B94" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C94" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="7" customFormat="1" ht="47.25">
-      <c r="B89" s="7" t="s">
+      <c r="E94" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B95" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E95" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B96" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B97" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="7" customFormat="1" ht="47.25">
-      <c r="B90" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E90" s="3" t="s">
+    <row r="98" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B98" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="7" customFormat="1" ht="47.25">
-      <c r="B91" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E91" s="3" t="s">
+    <row r="99" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B99" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="7" customFormat="1" ht="63">
-      <c r="B92" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E92" s="3" t="s">
+    <row r="100" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B100" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="7" customFormat="1" ht="47.25">
-      <c r="B93" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" s="7" customFormat="1" ht="47.25">
-      <c r="B94" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" s="7" customFormat="1" ht="47.25">
-      <c r="B95" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="7" customFormat="1" ht="47.25">
-      <c r="B96" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="7" customFormat="1" ht="47.25">
-      <c r="B97" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" s="7" customFormat="1" ht="47.25">
-      <c r="B98" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="7" customFormat="1" ht="47.25">
-      <c r="B99" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" s="7" customFormat="1" ht="47.25">
-      <c r="B100" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="7" customFormat="1">
       <c r="A101" s="10" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
     </row>
-    <row r="102" spans="1:5" s="7" customFormat="1" ht="47.25">
+    <row r="102" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B102" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="7" customFormat="1" ht="47.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B103" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="7" customFormat="1">

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="1260" windowWidth="26040" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10100" yWindow="2780" windowWidth="26040" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="245">
   <si>
     <t>Race</t>
   </si>
@@ -724,6 +724,36 @@
   </si>
   <si>
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Charge[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest/j:ArrestCharge/@structures:ref]/cscr-ext:HoldForAgency/nc:OrganizationName</t>
+  </si>
+  <si>
+    <t>Offense</t>
+  </si>
+  <si>
+    <t>Offense Date</t>
+  </si>
+  <si>
+    <t>The date of an offense</t>
+  </si>
+  <si>
+    <t>Offense Description</t>
+  </si>
+  <si>
+    <t>The description of an offense</t>
+  </si>
+  <si>
+    <t>Offense Category</t>
+  </si>
+  <si>
+    <t>A type of offense</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Offense[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:OffenseChargeAssociation/j:Offense/@structures:ref]/nc:ActivityDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Offense[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:OffenseChargeAssociation/j:Offense/@structures:ref]/nc:ActivityDescriptionText</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Offense[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:OffenseChargeAssociation/j:Offense/@structures:ref]/j:OffenseCategoryText</t>
   </si>
 </sst>
 </file>
@@ -862,7 +892,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="747">
+  <cellStyleXfs count="749">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1592,6 +1622,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1686,7 +1718,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="747">
+  <cellStyles count="749">
     <cellStyle name="Bad 2" xfId="727"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2060,6 +2092,7 @@
     <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2432,6 +2465,7 @@
     <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral 2" xfId="728"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2767,11 +2801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3573,7 +3607,7 @@
     </row>
     <row r="65" spans="1:5" s="7" customFormat="1">
       <c r="A65" s="10" t="s">
-        <v>93</v>
+        <v>235</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -3582,392 +3616,434 @@
     </row>
     <row r="66" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>236</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>95</v>
+        <v>237</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>238</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B68" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="7" customFormat="1">
+      <c r="A69" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+    </row>
+    <row r="70" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B72" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="7" customFormat="1" ht="60">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8" t="s">
+    <row r="73" spans="1:5" s="7" customFormat="1" ht="60">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="3" t="s">
+      <c r="D73" s="8"/>
+      <c r="E73" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A70" s="7" t="s">
+    <row r="74" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A74" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B74" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A71" s="8" t="s">
+    <row r="75" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A75" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="3" t="s">
+      <c r="D75" s="8"/>
+      <c r="E75" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="7" customFormat="1">
-      <c r="A72" s="10" t="s">
+    <row r="76" spans="1:5" s="7" customFormat="1">
+      <c r="A76" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-    </row>
-    <row r="73" spans="1:5" s="5" customFormat="1" ht="30">
-      <c r="A73" s="8"/>
-      <c r="B73" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="5" customFormat="1" ht="30">
-      <c r="A74" s="8"/>
-      <c r="B74" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="5" customFormat="1" ht="30">
-      <c r="A75" s="8"/>
-      <c r="B75" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="5" customFormat="1" ht="30">
-      <c r="A76" s="8"/>
-      <c r="B76" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="2" t="s">
-        <v>148</v>
-      </c>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
     </row>
     <row r="77" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A77" s="8"/>
       <c r="B77" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A78" s="8"/>
       <c r="B78" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="7" customFormat="1" ht="45">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A79" s="8"/>
       <c r="B79" s="18" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="7" customFormat="1" ht="45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A80" s="8"/>
       <c r="B80" s="18" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="7" customFormat="1" ht="30">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A81" s="8"/>
-      <c r="B81" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>108</v>
-      </c>
+      <c r="B81" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="7" customFormat="1">
-      <c r="A82" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-    </row>
-    <row r="83" spans="1:5" s="7" customFormat="1" ht="30">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="5" customFormat="1" ht="30">
+      <c r="A82" s="8"/>
+      <c r="B82" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A83" s="8"/>
-      <c r="B83" s="8" t="s">
-        <v>137</v>
+      <c r="B83" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="A84" s="8"/>
+      <c r="B84" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="7" customFormat="1">
+      <c r="A86" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+    </row>
+    <row r="87" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="7" customFormat="1">
-      <c r="A84" s="10" t="s">
+    <row r="88" spans="1:5" s="7" customFormat="1">
+      <c r="A88" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-    </row>
-    <row r="85" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B85" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B86" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B87" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B88" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>212</v>
-      </c>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
     </row>
     <row r="89" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B89" s="7" t="s">
-        <v>178</v>
+        <v>128</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B90" s="7" t="s">
-        <v>179</v>
+      <c r="B90" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B91" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" s="7" customFormat="1" ht="60">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B92" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B93" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B94" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B95" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="7" customFormat="1" ht="45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="7" customFormat="1" ht="60">
       <c r="B96" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B97" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B98" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B99" s="2" t="s">
-        <v>190</v>
+      <c r="B99" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B100" s="2" t="s">
-        <v>191</v>
+      <c r="B100" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="7" customFormat="1">
-      <c r="A101" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B101" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="102" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B102" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B103" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B104" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="7" customFormat="1">
+      <c r="A105" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+    </row>
+    <row r="106" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B106" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B107" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E107" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="7" customFormat="1">
-      <c r="B104" s="2"/>
-      <c r="E104" s="3"/>
+    <row r="108" spans="1:5" s="7" customFormat="1">
+      <c r="B108" s="2"/>
+      <c r="E108" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A8:J35">

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="2780" windowWidth="26040" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2300" yWindow="480" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="247">
   <si>
     <t>Race</t>
   </si>
@@ -754,6 +754,12 @@
   </si>
   <si>
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Offense[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:OffenseChargeAssociation/j:Offense/@structures:ref]/j:OffenseCategoryText</t>
+  </si>
+  <si>
+    <t>Race Code (Adams County)</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/ac-bkg-codes:PersonRaceCode</t>
   </si>
 </sst>
 </file>
@@ -2801,11 +2807,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3055,190 +3061,185 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12" t="s">
+    <row r="22" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="12" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="12" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="45">
-      <c r="A23" s="6"/>
-      <c r="B23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45">
       <c r="A24" s="6"/>
       <c r="B24" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45">
       <c r="A25" s="6"/>
       <c r="B25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45">
       <c r="A26" s="6"/>
       <c r="B26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16" t="s">
-        <v>50</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45">
+      <c r="A27" s="6"/>
+      <c r="B27" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30">
       <c r="A28" s="16"/>
-      <c r="B28" s="2" t="s">
-        <v>52</v>
+      <c r="B28" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30">
       <c r="A29" s="16"/>
-      <c r="B29" s="16" t="s">
-        <v>54</v>
+      <c r="B29" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>1</v>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="15" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:13" s="7" customFormat="1" ht="30">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="7" customFormat="1" ht="45">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="7" customFormat="1" ht="30">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="7" customFormat="1" ht="45">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-    </row>
-    <row r="35" spans="1:13" s="7" customFormat="1" ht="45">
+        <v>109</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="7" customFormat="1" ht="30">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="21"/>
       <c r="E35" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="23"/>
@@ -3249,15 +3250,15 @@
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
     </row>
-    <row r="36" spans="1:13" s="7" customFormat="1" ht="30">
+    <row r="36" spans="1:13" s="7" customFormat="1" ht="45">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="21"/>
       <c r="E36" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="23"/>
@@ -3268,326 +3269,330 @@
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:13" s="7" customFormat="1" ht="30">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="22"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-    </row>
-    <row r="38" spans="1:13" s="7" customFormat="1" ht="45">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="7" customFormat="1" ht="60">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:13" s="7" customFormat="1" ht="45">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="7" customFormat="1" ht="60">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="7" customFormat="1" ht="60">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="7" customFormat="1" ht="45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="7" customFormat="1" ht="60">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="7" customFormat="1" ht="45">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="7" customFormat="1">
-      <c r="A43" s="10" t="s">
+    <row r="44" spans="1:13" s="7" customFormat="1">
+      <c r="A44" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:13" s="7" customFormat="1" ht="30">
-      <c r="B44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:13" s="7" customFormat="1" ht="30">
       <c r="B45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="7" customFormat="1" ht="30">
+      <c r="B46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="7" customFormat="1" ht="60">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8" t="s">
+    <row r="47" spans="1:13" s="7" customFormat="1" ht="60">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="2" t="s">
+      <c r="D47" s="8"/>
+      <c r="E47" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="7" customFormat="1">
-      <c r="A47" s="10" t="s">
+    <row r="48" spans="1:13" s="7" customFormat="1">
+      <c r="A48" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:13" s="7" customFormat="1">
-      <c r="A48" s="13"/>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:5" s="7" customFormat="1">
+      <c r="A49" s="13"/>
+      <c r="B49" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="3" t="s">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="3" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="45">
-      <c r="A51" s="12"/>
-      <c r="B51" s="3" t="s">
+    <row r="52" spans="1:5" ht="45">
+      <c r="A52" s="12"/>
+      <c r="B52" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="4" t="s">
+      <c r="D52" s="12"/>
+      <c r="E52" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="7" customFormat="1">
-      <c r="A52" s="10" t="s">
+    <row r="53" spans="1:5" s="7" customFormat="1">
+      <c r="A53" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A54" s="8"/>
-      <c r="B54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A55" s="8"/>
+      <c r="B55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="7" customFormat="1">
-      <c r="A55" s="10" t="s">
+    <row r="56" spans="1:5" s="7" customFormat="1">
+      <c r="A56" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-    </row>
-    <row r="56" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B57" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E57" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B57" s="2" t="s">
+    <row r="58" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A58" s="7" t="s">
+    <row r="59" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A59" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E59" s="7" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>89</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A61" s="3"/>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="A62" s="3"/>
+      <c r="B62" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A62" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A63" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="7" customFormat="1" ht="30">
@@ -3595,455 +3600,470 @@
         <v>32</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A65" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="7" customFormat="1">
-      <c r="A65" s="10" t="s">
+    <row r="66" spans="1:5" s="7" customFormat="1">
+      <c r="A66" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-    </row>
-    <row r="66" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B66" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>242</v>
-      </c>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
     </row>
     <row r="67" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B67" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B68" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B69" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="7" customFormat="1">
-      <c r="A69" s="10" t="s">
+    <row r="70" spans="1:5" s="7" customFormat="1">
+      <c r="A70" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-    </row>
-    <row r="70" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B70" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>229</v>
-      </c>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
     </row>
     <row r="71" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B73" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="7" customFormat="1" ht="60">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8" t="s">
+    <row r="74" spans="1:5" s="7" customFormat="1" ht="60">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="3" t="s">
+      <c r="D74" s="8"/>
+      <c r="E74" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A74" s="7" t="s">
+    <row r="75" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A75" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B75" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A75" s="8" t="s">
+    <row r="76" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A76" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="3" t="s">
+      <c r="D76" s="8"/>
+      <c r="E76" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="7" customFormat="1">
-      <c r="A76" s="10" t="s">
+    <row r="77" spans="1:5" s="7" customFormat="1">
+      <c r="A77" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-    </row>
-    <row r="77" spans="1:5" s="5" customFormat="1" ht="30">
-      <c r="A77" s="8"/>
-      <c r="B77" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
     </row>
     <row r="78" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A78" s="8"/>
       <c r="B78" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A79" s="8"/>
       <c r="B79" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A80" s="8"/>
       <c r="B80" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A81" s="8"/>
       <c r="B81" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A82" s="8"/>
       <c r="B82" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="7" customFormat="1" ht="45">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A83" s="8"/>
       <c r="B83" s="18" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="2" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A84" s="8"/>
       <c r="B84" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" s="7" customFormat="1" ht="30">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A85" s="8"/>
-      <c r="B85" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>108</v>
-      </c>
+      <c r="B85" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="7" customFormat="1">
-      <c r="A86" s="10" t="s">
+    <row r="87" spans="1:5" s="7" customFormat="1">
+      <c r="A87" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-    </row>
-    <row r="87" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+    </row>
+    <row r="88" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="2" t="s">
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="7" customFormat="1">
-      <c r="A88" s="10" t="s">
+    <row r="89" spans="1:5" s="7" customFormat="1">
+      <c r="A89" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-    </row>
-    <row r="89" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+    </row>
+    <row r="90" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B90" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E90" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B90" s="2" t="s">
+    <row r="91" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B91" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E91" s="3" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B91" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B92" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B93" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B94" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B95" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B96" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E96" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="7" customFormat="1" ht="60">
-      <c r="B96" s="7" t="s">
+    <row r="97" spans="1:5" s="7" customFormat="1" ht="60">
+      <c r="B97" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E97" s="3" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B97" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B98" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B99" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B100" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B101" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B102" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B103" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E103" s="3" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B103" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B104" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B105" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E105" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="7" customFormat="1">
-      <c r="A105" s="10" t="s">
+    <row r="106" spans="1:5" s="7" customFormat="1">
+      <c r="A106" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-    </row>
-    <row r="106" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+    </row>
+    <row r="107" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B107" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E107" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B107" s="2" t="s">
+    <row r="108" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B108" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E108" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="7" customFormat="1">
-      <c r="B108" s="2"/>
-      <c r="E108" s="3"/>
+    <row r="109" spans="1:5" s="7" customFormat="1">
+      <c r="B109" s="2"/>
+      <c r="E109" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A8:J35">

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="480" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="2300" yWindow="440" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -756,10 +756,10 @@
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Offense[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:OffenseChargeAssociation/j:Offense/@structures:ref]/j:OffenseCategoryText</t>
   </si>
   <si>
-    <t>Race Code (Adams County)</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/ac-bkg-codes:PersonRaceCode</t>
+    <t>Race Code (Pima County)</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/pc-bkg-codes:PersonRaceCode</t>
   </si>
 </sst>
 </file>
@@ -898,7 +898,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="749">
+  <cellStyleXfs count="751">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1628,6 +1628,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1724,7 +1726,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="749">
+  <cellStyles count="751">
     <cellStyle name="Bad 2" xfId="727"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2099,6 +2101,7 @@
     <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2472,6 +2475,7 @@
     <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral 2" xfId="728"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2810,8 +2814,8 @@
   <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3071,7 +3075,7 @@
       <c r="C22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="12" t="s">
         <v>246</v>
       </c>
     </row>

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="440" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="4860" yWindow="4240" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="252">
   <si>
     <t>Race</t>
   </si>
@@ -760,6 +760,21 @@
   </si>
   <si>
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/pc-bkg-codes:PersonRaceCode</t>
+  </si>
+  <si>
+    <t>Charge Severity</t>
+  </si>
+  <si>
+    <t>Charge Severity Text</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Charge[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest/j:ArrestCharge/@structures:ref]/j:ChargeSeverityText</t>
+  </si>
+  <si>
+    <t>Charge Jurisdiction Court</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Charge[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest/j:ArrestCharge/@structures:ref]/cscr-ext:ChargeJurisdictionCourt/j:CourtName</t>
   </si>
 </sst>
 </file>
@@ -898,7 +913,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="751">
+  <cellStyleXfs count="755">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1628,6 +1643,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1726,7 +1745,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="751">
+  <cellStyles count="755">
     <cellStyle name="Bad 2" xfId="727"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2102,6 +2121,8 @@
     <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2476,6 +2497,8 @@
     <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral 2" xfId="728"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2811,11 +2834,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3693,381 +3716,402 @@
     </row>
     <row r="72" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>247</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B73" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B74" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="7" customFormat="1" ht="60">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8" t="s">
+    <row r="75" spans="1:5" s="7" customFormat="1" ht="60">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="3" t="s">
+      <c r="D75" s="8"/>
+      <c r="E75" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A75" s="7" t="s">
+    <row r="76" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A76" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="B76" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B77" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A78" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="7" customFormat="1">
-      <c r="A77" s="10" t="s">
+    <row r="79" spans="1:5" s="7" customFormat="1">
+      <c r="A79" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-    </row>
-    <row r="78" spans="1:5" s="5" customFormat="1" ht="30">
-      <c r="A78" s="8"/>
-      <c r="B78" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="5" customFormat="1" ht="30">
-      <c r="A79" s="8"/>
-      <c r="B79" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
     </row>
     <row r="80" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A80" s="8"/>
       <c r="B80" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A81" s="8"/>
       <c r="B81" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A82" s="8"/>
       <c r="B82" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A83" s="8"/>
       <c r="B83" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="7" customFormat="1" ht="45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A84" s="8"/>
       <c r="B84" s="18" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" s="7" customFormat="1" ht="45">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A85" s="8"/>
       <c r="B85" s="18" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" s="7" customFormat="1" ht="30">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A86" s="8"/>
-      <c r="B86" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>108</v>
-      </c>
+      <c r="B86" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" s="7" customFormat="1">
-      <c r="A87" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="A87" s="8"/>
+      <c r="B87" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="88" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A88" s="8"/>
       <c r="B88" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C88" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="D88" s="8"/>
       <c r="E88" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="7" customFormat="1">
       <c r="A89" s="10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
     </row>
-    <row r="90" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B90" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B91" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>210</v>
-      </c>
+    <row r="90" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="7" customFormat="1">
+      <c r="A91" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
     </row>
     <row r="92" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B92" s="7" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B93" s="7" t="s">
-        <v>176</v>
+      <c r="B93" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B94" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B95" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B96" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="7" customFormat="1" ht="60">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B97" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B98" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="7" customFormat="1" ht="45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="7" customFormat="1" ht="60">
       <c r="B99" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B100" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B101" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B102" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B103" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B104" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B105" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E105" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B104" s="2" t="s">
+    <row r="106" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B106" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E106" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B105" s="2" t="s">
+    <row r="107" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B107" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E107" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="7" customFormat="1">
-      <c r="A106" s="10" t="s">
+    <row r="108" spans="1:5" s="7" customFormat="1">
+      <c r="A108" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-    </row>
-    <row r="107" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B107" s="7" t="s">
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+    </row>
+    <row r="109" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B109" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E109" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B108" s="2" t="s">
+    <row r="110" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B110" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E110" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="7" customFormat="1">
-      <c r="B109" s="2"/>
-      <c r="E109" s="3"/>
+    <row r="111" spans="1:5" s="7" customFormat="1">
+      <c r="B111" s="2"/>
+      <c r="E111" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A8:J35">

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="4240" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="8740" yWindow="1480" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="257">
   <si>
     <t>Race</t>
   </si>
@@ -775,6 +775,21 @@
   </si>
   <si>
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Charge[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest/j:ArrestCharge/@structures:ref]/cscr-ext:ChargeJurisdictionCourt/j:CourtName</t>
+  </si>
+  <si>
+    <t>Person Ethnicity Code (Pima County)</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/pc-bkg-codes:PersonEthnicityCode</t>
+  </si>
+  <si>
+    <t>Charge Disposition</t>
+  </si>
+  <si>
+    <t>ChargeDisposition Text</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Charge[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest/j:ArrestCharge/@structures:ref]/j:ChargeDisposition/nc:DispositionText</t>
   </si>
 </sst>
 </file>
@@ -913,7 +928,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="755">
+  <cellStyleXfs count="761">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1643,6 +1658,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1745,7 +1766,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="755">
+  <cellStyles count="761">
     <cellStyle name="Bad 2" xfId="727"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2123,6 +2144,9 @@
     <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2499,6 +2523,9 @@
     <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral 2" xfId="728"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2834,11 +2861,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
+      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3075,217 +3102,213 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="3"/>
+    <row r="21" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A21" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="B21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12" t="s">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A22" s="7" t="s">
+    <row r="23" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12" t="s">
+    <row r="24" spans="1:5" ht="30">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="12" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="12" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="45">
-      <c r="A24" s="6"/>
-      <c r="B24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45">
       <c r="A25" s="6"/>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45">
       <c r="A26" s="6"/>
       <c r="B26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="45">
       <c r="A27" s="6"/>
       <c r="B27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16" t="s">
-        <v>50</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45">
+      <c r="A28" s="6"/>
+      <c r="B28" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30">
       <c r="A29" s="16"/>
-      <c r="B29" s="2" t="s">
-        <v>52</v>
+      <c r="B29" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30">
       <c r="A30" s="16"/>
-      <c r="B30" s="16" t="s">
-        <v>54</v>
+      <c r="B30" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
-        <v>1</v>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="30">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="15" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="7" customFormat="1" ht="30">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:13" s="7" customFormat="1" ht="30">
+      <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="7" customFormat="1" ht="45">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="7" customFormat="1" ht="30">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="7" customFormat="1" ht="45">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="1:13" s="7" customFormat="1" ht="45">
+        <v>109</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="7" customFormat="1" ht="30">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="21"/>
       <c r="E36" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="23"/>
@@ -3296,15 +3319,15 @@
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="1:13" s="7" customFormat="1" ht="30">
+    <row r="37" spans="1:13" s="7" customFormat="1" ht="45">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="21"/>
       <c r="E37" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="23"/>
@@ -3315,326 +3338,330 @@
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
     </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:13" s="7" customFormat="1" ht="30">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="1:13" s="7" customFormat="1" ht="45">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="7" customFormat="1" ht="60">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:13" s="7" customFormat="1" ht="45">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="7" customFormat="1" ht="60">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="7" customFormat="1" ht="60">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="7" customFormat="1" ht="45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="7" customFormat="1" ht="60">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="7" customFormat="1" ht="45">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="7" customFormat="1">
-      <c r="A44" s="10" t="s">
+    <row r="45" spans="1:13" s="7" customFormat="1">
+      <c r="A45" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:13" s="7" customFormat="1" ht="30">
-      <c r="B45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:13" s="7" customFormat="1" ht="30">
       <c r="B46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="7" customFormat="1" ht="30">
+      <c r="B47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="7" customFormat="1" ht="60">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8" t="s">
+    <row r="48" spans="1:13" s="7" customFormat="1" ht="60">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="2" t="s">
+      <c r="D48" s="8"/>
+      <c r="E48" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="7" customFormat="1">
-      <c r="A48" s="10" t="s">
+    <row r="49" spans="1:5" s="7" customFormat="1">
+      <c r="A49" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="1:5" s="7" customFormat="1">
-      <c r="A49" s="13"/>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:5" s="7" customFormat="1">
+      <c r="A50" s="13"/>
+      <c r="B50" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="3" t="s">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="3" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="45">
-      <c r="A52" s="12"/>
-      <c r="B52" s="3" t="s">
+    <row r="53" spans="1:5" ht="45">
+      <c r="A53" s="12"/>
+      <c r="B53" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="4" t="s">
+      <c r="D53" s="12"/>
+      <c r="E53" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="7" customFormat="1">
-      <c r="A53" s="10" t="s">
+    <row r="54" spans="1:5" s="7" customFormat="1">
+      <c r="A54" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A55" s="8"/>
-      <c r="B55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A56" s="8"/>
+      <c r="B56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="7" customFormat="1">
-      <c r="A56" s="10" t="s">
+    <row r="57" spans="1:5" s="7" customFormat="1">
+      <c r="A57" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-    </row>
-    <row r="57" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B58" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E58" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B58" s="2" t="s">
+    <row r="59" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B59" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A59" s="7" t="s">
+    <row r="60" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A60" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E60" s="7" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>89</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A62" s="3"/>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="A63" s="3"/>
+      <c r="B63" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A63" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A64" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="7" customFormat="1" ht="30">
@@ -3642,476 +3669,502 @@
         <v>32</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A66" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="7" customFormat="1">
-      <c r="A66" s="10" t="s">
+    <row r="67" spans="1:5" s="7" customFormat="1">
+      <c r="A67" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-    </row>
-    <row r="67" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B67" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>242</v>
-      </c>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
     </row>
     <row r="68" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B68" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B69" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B70" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="7" customFormat="1">
-      <c r="A70" s="10" t="s">
+    <row r="71" spans="1:5" s="7" customFormat="1">
+      <c r="A71" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-    </row>
-    <row r="71" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B71" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>229</v>
-      </c>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
     </row>
     <row r="72" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B72" s="2" t="s">
-        <v>247</v>
+        <v>94</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>248</v>
+        <v>95</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>247</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B75" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B76" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="7" customFormat="1" ht="60">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8" t="s">
+    <row r="77" spans="1:5" s="7" customFormat="1" ht="60">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="3" t="s">
+      <c r="D77" s="8"/>
+      <c r="E77" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A76" s="7" t="s">
+    <row r="78" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A78" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B78" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B77" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A78" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B79" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A80" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="7" customFormat="1">
-      <c r="A79" s="10" t="s">
+    <row r="81" spans="1:5" s="7" customFormat="1">
+      <c r="A81" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-    </row>
-    <row r="80" spans="1:5" s="5" customFormat="1" ht="30">
-      <c r="A80" s="8"/>
-      <c r="B80" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="5" customFormat="1" ht="30">
-      <c r="A81" s="8"/>
-      <c r="B81" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
     </row>
     <row r="82" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A82" s="8"/>
       <c r="B82" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A83" s="8"/>
       <c r="B83" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A84" s="8"/>
       <c r="B84" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A85" s="8"/>
       <c r="B85" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" s="7" customFormat="1" ht="45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A86" s="8"/>
       <c r="B86" s="18" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" s="7" customFormat="1" ht="45">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A87" s="8"/>
       <c r="B87" s="18" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" s="7" customFormat="1" ht="30">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A88" s="8"/>
-      <c r="B88" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>108</v>
-      </c>
+      <c r="B88" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="7" customFormat="1">
-      <c r="A89" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="A89" s="8"/>
+      <c r="B89" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="90" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A90" s="8"/>
       <c r="B90" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C90" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="D90" s="8"/>
       <c r="E90" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="7" customFormat="1">
       <c r="A91" s="10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
     </row>
-    <row r="92" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B92" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B93" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>210</v>
-      </c>
+    <row r="92" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="7" customFormat="1">
+      <c r="A93" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
     </row>
     <row r="94" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B94" s="7" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B95" s="7" t="s">
-        <v>176</v>
+      <c r="B95" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B96" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B97" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B98" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="7" customFormat="1" ht="60">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B99" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B100" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="7" customFormat="1" ht="45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="7" customFormat="1" ht="60">
       <c r="B101" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B102" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B103" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B104" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B105" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B106" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B107" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E107" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B106" s="2" t="s">
+    <row r="108" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B108" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E108" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B107" s="2" t="s">
+    <row r="109" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B109" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E109" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="7" customFormat="1">
-      <c r="A108" s="10" t="s">
+    <row r="110" spans="1:5" s="7" customFormat="1">
+      <c r="A110" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-    </row>
-    <row r="109" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B109" s="7" t="s">
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+    </row>
+    <row r="111" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B111" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E111" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B110" s="2" t="s">
+    <row r="112" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B112" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E112" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="7" customFormat="1">
-      <c r="B111" s="2"/>
-      <c r="E111" s="3"/>
+    <row r="113" spans="2:5" s="7" customFormat="1">
+      <c r="B113" s="2"/>
+      <c r="E113" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A8:J35">

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8740" yWindow="1480" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="3580" yWindow="2480" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="260">
   <si>
     <t>Race</t>
   </si>
@@ -790,6 +790,15 @@
   </si>
   <si>
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Charge[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Arrest/j:ArrestCharge/@structures:ref]/j:ChargeDisposition/nc:DispositionText</t>
+  </si>
+  <si>
+    <t>Booking Subject Location Status Description</t>
+  </si>
+  <si>
+    <t>Current location status of the booking subject at the time of report</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/cscr-ext:SubjectLocationStatus/nc:StatusDescriptionText</t>
   </si>
 </sst>
 </file>
@@ -928,7 +937,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="761">
+  <cellStyleXfs count="763">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1690,8 +1699,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1765,8 +1776,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="761">
+  <cellStyles count="763">
     <cellStyle name="Bad 2" xfId="727"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2147,6 +2164,7 @@
     <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="762" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2526,6 +2544,7 @@
     <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="761" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral 2" xfId="728"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2861,11 +2880,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3510,173 +3529,171 @@
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A52" s="3"/>
-      <c r="B52" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>59</v>
+      <c r="B52" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>258</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="45">
-      <c r="A53" s="12"/>
-      <c r="B53" s="3" t="s">
+    <row r="54" spans="1:5" ht="45">
+      <c r="A54" s="12"/>
+      <c r="B54" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="4" t="s">
+      <c r="D54" s="12"/>
+      <c r="E54" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="7" customFormat="1">
-      <c r="A54" s="10" t="s">
+    <row r="55" spans="1:5" s="7" customFormat="1">
+      <c r="A55" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="55" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+    </row>
+    <row r="56" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A56" s="8"/>
-      <c r="B56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A57" s="8"/>
+      <c r="B57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="7" customFormat="1">
-      <c r="A57" s="10" t="s">
+    <row r="58" spans="1:5" s="7" customFormat="1">
+      <c r="A58" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-    </row>
-    <row r="58" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B59" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E59" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B59" s="2" t="s">
+    <row r="60" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A60" s="7" t="s">
+    <row r="61" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A61" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E61" s="7" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>89</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A63" s="3"/>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="A64" s="3"/>
+      <c r="B64" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A64" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A65" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="7" customFormat="1" ht="30">
@@ -3684,487 +3701,502 @@
         <v>32</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A67" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="7" customFormat="1">
-      <c r="A67" s="10" t="s">
+    <row r="68" spans="1:5" s="7" customFormat="1">
+      <c r="A68" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-    </row>
-    <row r="68" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B68" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>242</v>
-      </c>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
     </row>
     <row r="69" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B69" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B70" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B71" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="7" customFormat="1">
-      <c r="A71" s="10" t="s">
+    <row r="72" spans="1:5" s="7" customFormat="1">
+      <c r="A72" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-    </row>
-    <row r="72" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B72" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>229</v>
-      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
     </row>
     <row r="73" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B73" s="2" t="s">
-        <v>247</v>
+        <v>94</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>248</v>
+        <v>95</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B74" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B75" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B75" s="7" t="s">
+    <row r="76" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B76" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B76" s="2" t="s">
+    <row r="77" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B77" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="7" customFormat="1" ht="60">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8" t="s">
+    <row r="78" spans="1:5" s="7" customFormat="1" ht="60">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A78" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A79" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B79" s="7" t="s">
+    <row r="80" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B80" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A80" s="8" t="s">
+    <row r="81" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A81" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="3" t="s">
+      <c r="D81" s="8"/>
+      <c r="E81" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="7" customFormat="1">
-      <c r="A81" s="10" t="s">
+    <row r="82" spans="1:5" s="7" customFormat="1">
+      <c r="A82" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-    </row>
-    <row r="82" spans="1:5" s="5" customFormat="1" ht="30">
-      <c r="A82" s="8"/>
-      <c r="B82" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
     </row>
     <row r="83" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A83" s="8"/>
       <c r="B83" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A84" s="8"/>
       <c r="B84" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A85" s="8"/>
       <c r="B85" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A86" s="8"/>
       <c r="B86" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A87" s="8"/>
       <c r="B87" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" s="7" customFormat="1" ht="45">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A88" s="8"/>
       <c r="B88" s="18" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="2" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A89" s="8"/>
       <c r="B89" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" s="7" customFormat="1" ht="30">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A90" s="8"/>
-      <c r="B90" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>108</v>
-      </c>
+      <c r="B90" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="7" customFormat="1">
-      <c r="A91" s="10" t="s">
+    <row r="92" spans="1:5" s="7" customFormat="1">
+      <c r="A92" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-    </row>
-    <row r="92" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+    </row>
+    <row r="93" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="2" t="s">
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="7" customFormat="1">
-      <c r="A93" s="10" t="s">
+    <row r="94" spans="1:5" s="7" customFormat="1">
+      <c r="A94" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-    </row>
-    <row r="94" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+    </row>
+    <row r="95" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B95" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C95" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E95" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B95" s="2" t="s">
+    <row r="96" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B96" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C96" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E96" s="3" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B96" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B97" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B98" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B99" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B100" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B101" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="7" customFormat="1" ht="60">
-      <c r="B101" s="7" t="s">
+    <row r="102" spans="1:5" s="7" customFormat="1" ht="60">
+      <c r="B102" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E102" s="3" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B102" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B103" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B104" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B105" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B106" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B107" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B108" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E108" s="3" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B108" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B109" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B110" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E110" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="7" customFormat="1">
-      <c r="A110" s="10" t="s">
+    <row r="111" spans="1:5" s="7" customFormat="1">
+      <c r="A111" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-    </row>
-    <row r="111" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+    </row>
+    <row r="112" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B112" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E112" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B112" s="2" t="s">
+    <row r="113" spans="2:5" s="7" customFormat="1" ht="45">
+      <c r="B113" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E113" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="113" spans="2:5" s="7" customFormat="1">
-      <c r="B113" s="2"/>
-      <c r="E113" s="3"/>
+    <row r="114" spans="2:5" s="7" customFormat="1">
+      <c r="B114" s="2"/>
+      <c r="E114" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A8:J35">

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
@@ -255,12 +255,6 @@
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonSSNIdentification/nc:IdentificationID</t>
   </si>
   <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonAugmentation/j:DriverLicense/j:DriverLicenseCardIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonAugmentation/j:DriverLicense/j:DriverLicenseCardIdentification/nc:IdentificationSourceText</t>
-  </si>
-  <si>
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonAugmentation/j:PersonFBIIdentification/nc:IdentificationID</t>
   </si>
   <si>
@@ -799,6 +793,12 @@
   </si>
   <si>
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/cscr-ext:SubjectLocationStatus/nc:StatusDescriptionText</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonAugmentation/j:DriverLicense/j:DriverLicenseIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonAugmentation/j:DriverLicense/j:DriverLicenseIdentification/nc:IdentificationSourceText</t>
   </si>
 </sst>
 </file>
@@ -2883,8 +2883,8 @@
   <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2899,7 +2899,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3006,7 +3006,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3021,78 +3021,78 @@
     <row r="12" spans="1:5" s="8" customFormat="1" ht="30">
       <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="15" customFormat="1" ht="30">
       <c r="A13" s="24"/>
       <c r="B13" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="15" customFormat="1" ht="30">
       <c r="A14" s="24"/>
       <c r="B14" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="15" customFormat="1" ht="30">
       <c r="A15" s="24"/>
       <c r="B15" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="15" customFormat="1" ht="30">
       <c r="A16" s="24"/>
       <c r="B16" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="15" customFormat="1" ht="30">
       <c r="A17" s="24"/>
       <c r="B17" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="15" customFormat="1" ht="30">
       <c r="A18" s="24"/>
       <c r="B18" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30">
@@ -3129,11 +3129,11 @@
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30">
@@ -3154,13 +3154,13 @@
         <v>32</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30">
@@ -3186,7 +3186,7 @@
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="45">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16" t="s">
-        <v>79</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="45">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="30">
@@ -3288,7 +3288,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="6"/>
       <c r="E33" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="7" customFormat="1" ht="30">
@@ -3296,38 +3296,38 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="7" customFormat="1" ht="45">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="7" customFormat="1" ht="30">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="21"/>
       <c r="E36" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="23"/>
@@ -3341,12 +3341,12 @@
     <row r="37" spans="1:13" s="7" customFormat="1" ht="45">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="21"/>
       <c r="E37" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="23"/>
@@ -3360,12 +3360,12 @@
     <row r="38" spans="1:13" s="7" customFormat="1" ht="30">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="21"/>
       <c r="E38" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="23"/>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="7" customFormat="1" ht="60">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="7" customFormat="1" ht="60">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="7" customFormat="1" ht="60">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="7" customFormat="1" ht="45">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="7" customFormat="1">
@@ -3467,7 +3467,7 @@
         <v>56</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="7" customFormat="1" ht="30">
@@ -3478,7 +3478,7 @@
         <v>57</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="7" customFormat="1" ht="60">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="7" customFormat="1">
@@ -3506,38 +3506,38 @@
     <row r="50" spans="1:5" s="7" customFormat="1">
       <c r="A50" s="13"/>
       <c r="B50" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A52" s="3"/>
       <c r="B52" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="7" customFormat="1" ht="30">
@@ -3550,20 +3550,20 @@
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="45">
       <c r="A54" s="12"/>
       <c r="B54" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="7" customFormat="1">
@@ -3583,7 +3583,7 @@
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="7" customFormat="1" ht="30">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="7" customFormat="1">
@@ -3610,13 +3610,13 @@
     </row>
     <row r="59" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B59" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="7" customFormat="1" ht="30">
@@ -3627,7 +3627,7 @@
         <v>34</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="7" customFormat="1" ht="30">
@@ -3641,7 +3641,7 @@
         <v>33</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="7" customFormat="1" ht="45">
@@ -3654,31 +3654,31 @@
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A64" s="3"/>
       <c r="B64" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="7" customFormat="1" ht="30">
@@ -3689,11 +3689,11 @@
         <v>35</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="7" customFormat="1" ht="30">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="7" customFormat="1" ht="30">
@@ -3723,12 +3723,12 @@
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="7" customFormat="1">
       <c r="A68" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -3737,40 +3737,40 @@
     </row>
     <row r="69" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B69" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B70" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B71" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="7" customFormat="1">
       <c r="A72" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -3779,70 +3779,70 @@
     </row>
     <row r="73" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B74" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B76" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="7" customFormat="1" ht="60">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="7" customFormat="1" ht="30">
@@ -3850,23 +3850,23 @@
         <v>32</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B80" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="7" customFormat="1" ht="30">
@@ -3874,19 +3874,19 @@
         <v>32</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="7" customFormat="1">
       <c r="A82" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -3896,107 +3896,107 @@
     <row r="83" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A83" s="8"/>
       <c r="B83" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A84" s="8"/>
       <c r="B84" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A85" s="8"/>
       <c r="B85" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A86" s="8"/>
       <c r="B86" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A87" s="8"/>
       <c r="B87" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A88" s="8"/>
       <c r="B88" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A89" s="8"/>
       <c r="B89" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A90" s="8"/>
       <c r="B90" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A91" s="8"/>
       <c r="B91" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="7" customFormat="1">
       <c r="A92" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -4006,17 +4006,17 @@
     <row r="93" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A93" s="8"/>
       <c r="B93" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="7" customFormat="1">
       <c r="A94" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -4025,153 +4025,153 @@
     </row>
     <row r="95" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B95" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B96" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B97" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B98" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B99" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B100" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B101" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="7" customFormat="1" ht="60">
       <c r="B102" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B103" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B104" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B105" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B106" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B107" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B108" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B109" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B110" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="7" customFormat="1">
       <c r="A111" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -4180,18 +4180,18 @@
     </row>
     <row r="112" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B112" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="113" spans="2:5" s="7" customFormat="1" ht="45">
       <c r="B113" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="114" spans="2:5" s="7" customFormat="1">

--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Status_Change_Reporting/artifacts/service_model/information_model/IEPD/documentation/CustodyStatusChange.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2480" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="5500" yWindow="2540" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustodyStatusChangeReport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="263">
   <si>
     <t>Race</t>
   </si>
@@ -799,6 +799,15 @@
   </si>
   <si>
     <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/nc:Person[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonAugmentation/j:DriverLicense/j:DriverLicenseIdentification/nc:IdentificationSourceText</t>
+  </si>
+  <si>
+    <t>BookingStatusCode</t>
+  </si>
+  <si>
+    <t>Codes:Correct; Mistaken; InProcess</t>
+  </si>
+  <si>
+    <t>/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:Booking[@structures:id=/cscr-doc:CustodyStatusChangeReport/cscr-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/cscr:BookingStatusCode</t>
   </si>
 </sst>
 </file>
@@ -937,7 +946,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="763">
+  <cellStyleXfs count="767">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1667,6 +1676,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1783,7 +1796,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="763">
+  <cellStyles count="767">
     <cellStyle name="Bad 2" xfId="727"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2165,6 +2178,8 @@
     <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2545,6 +2560,8 @@
     <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral 2" xfId="728"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2880,11 +2897,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3566,149 +3583,147 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="7" customFormat="1">
-      <c r="A55" s="10" t="s">
+    <row r="55" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="7" customFormat="1">
+      <c r="A56" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-    </row>
-    <row r="56" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A57" s="8"/>
-      <c r="B57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A58" s="8"/>
+      <c r="B58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="7" customFormat="1">
-      <c r="A58" s="10" t="s">
+    <row r="59" spans="1:5" s="7" customFormat="1">
+      <c r="A59" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-    </row>
-    <row r="59" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B60" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E60" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B60" s="2" t="s">
+    <row r="61" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B61" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A61" s="7" t="s">
+    <row r="62" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A62" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E62" s="7" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>87</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A64" s="3"/>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="A65" s="3"/>
+      <c r="B65" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A65" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A66" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="7" customFormat="1" ht="30">
@@ -3716,487 +3731,502 @@
         <v>32</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A68" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="7" customFormat="1">
-      <c r="A68" s="10" t="s">
+    <row r="69" spans="1:5" s="7" customFormat="1">
+      <c r="A69" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-    </row>
-    <row r="69" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B69" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>240</v>
-      </c>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B70" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B71" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B72" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="7" customFormat="1">
-      <c r="A72" s="10" t="s">
+    <row r="73" spans="1:5" s="7" customFormat="1">
+      <c r="A73" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-    </row>
-    <row r="73" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B73" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>227</v>
-      </c>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B74" s="2" t="s">
-        <v>245</v>
+        <v>92</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>246</v>
+        <v>93</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="B75" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B76" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B76" s="7" t="s">
+    <row r="77" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B77" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B77" s="2" t="s">
+    <row r="78" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B78" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="7" customFormat="1" ht="60">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8" t="s">
+    <row r="79" spans="1:5" s="7" customFormat="1" ht="60">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A79" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A80" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="B80" s="7" t="s">
+    <row r="81" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="B81" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A81" s="8" t="s">
+    <row r="82" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A82" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="3" t="s">
+      <c r="D82" s="8"/>
+      <c r="E82" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="7" customFormat="1">
-      <c r="A82" s="10" t="s">
+    <row r="83" spans="1:5" s="7" customFormat="1">
+      <c r="A83" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-    </row>
-    <row r="83" spans="1:5" s="5" customFormat="1" ht="30">
-      <c r="A83" s="8"/>
-      <c r="B83" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
     </row>
     <row r="84" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A84" s="8"/>
       <c r="B84" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A85" s="8"/>
       <c r="B85" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A86" s="8"/>
       <c r="B86" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A87" s="8"/>
       <c r="B87" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A88" s="8"/>
       <c r="B88" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="7" customFormat="1" ht="45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="5" customFormat="1" ht="30">
       <c r="A89" s="8"/>
       <c r="B89" s="18" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="2" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A90" s="8"/>
       <c r="B90" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="7" customFormat="1" ht="30">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="A91" s="8"/>
-      <c r="B91" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>106</v>
-      </c>
+      <c r="B91" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="7" customFormat="1">
-      <c r="A92" s="10" t="s">
+    <row r="93" spans="1:5" s="7" customFormat="1">
+      <c r="A93" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-    </row>
-    <row r="93" spans="1:5" s="7" customFormat="1" ht="30">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+    </row>
+    <row r="94" spans="1:5" s="7" customFormat="1" ht="30">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="2" t="s">
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="7" customFormat="1">
-      <c r="A94" s="10" t="s">
+    <row r="95" spans="1:5" s="7" customFormat="1">
+      <c r="A95" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-    </row>
-    <row r="95" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+    </row>
+    <row r="96" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B96" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C96" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E96" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B96" s="2" t="s">
+    <row r="97" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B97" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C97" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E97" s="3" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B97" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B98" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B99" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B100" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B101" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B102" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E102" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="7" customFormat="1" ht="60">
-      <c r="B102" s="7" t="s">
+    <row r="103" spans="1:5" s="7" customFormat="1" ht="60">
+      <c r="B103" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E103" s="3" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B103" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B104" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B105" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B106" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B107" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B108" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B109" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E109" s="3" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B109" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="110" spans="1:5" s="7" customFormat="1" ht="45">
       <c r="B110" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="7" customFormat="1" ht="45">
+      <c r="B111" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E111" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="7" customFormat="1">
-      <c r="A111" s="10" t="s">
+    <row r="112" spans="1:5" s="7" customFormat="1">
+      <c r="A112" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-    </row>
-    <row r="112" spans="1:5" s="7" customFormat="1" ht="45">
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+    </row>
+    <row r="113" spans="2:5" s="7" customFormat="1" ht="45">
+      <c r="B113" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E113" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="2:5" s="7" customFormat="1" ht="45">
-      <c r="B113" s="2" t="s">
+    <row r="114" spans="2:5" s="7" customFormat="1" ht="45">
+      <c r="B114" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E114" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="114" spans="2:5" s="7" customFormat="1">
-      <c r="B114" s="2"/>
-      <c r="E114" s="3"/>
+    <row r="115" spans="2:5" s="7" customFormat="1">
+      <c r="B115" s="2"/>
+      <c r="E115" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A8:J35">
